--- a/data/SpeciesListForTraits.xlsx
+++ b/data/SpeciesListForTraits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Jayme_SSD1/Engagement/Species_lists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bgoldst2\Documents\butterfly-engagement-reproducible\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45E3AC19-1AB0-5242-9413-6B0BF6F507BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86965511-07B6-40B1-836C-FB2D627D8552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="760" windowWidth="20820" windowHeight="17740"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="butterflyTraits_add_missing_spe" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="459">
   <si>
     <t>aveWingspan</t>
   </si>
@@ -1407,12 +1407,15 @@
   </si>
   <si>
     <t>Dione vanillae</t>
+  </si>
+  <si>
+    <t>is_migratory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1921,15 +1924,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2284,38 +2286,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y317"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
+      <selection pane="bottomLeft" activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="26.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="6" max="25" width="10.83203125" style="2"/>
+    <col min="27" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>346</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2378,8 +2381,11 @@
       <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2449,12 +2455,15 @@
       <c r="Y2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>357</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2520,8 +2529,11 @@
       <c r="Y3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>294</v>
       </c>
@@ -2534,68 +2546,71 @@
       <c r="E4" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4">
-        <v>1</v>
-      </c>
-      <c r="W4" s="4">
-        <v>1</v>
-      </c>
-      <c r="X4" s="4">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
         <v>4</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="Y4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>295</v>
       </c>
@@ -2608,68 +2623,71 @@
       <c r="E5" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>7.2333299999999996</v>
       </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4">
-        <v>1</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
         <v>5</v>
       </c>
-      <c r="Y5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -2739,8 +2757,11 @@
       <c r="Y6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2810,8 +2831,11 @@
       <c r="Y7" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -2881,8 +2905,11 @@
       <c r="Y8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>309</v>
       </c>
@@ -2895,68 +2922,71 @@
       <c r="E9" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>3.25</v>
       </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>1</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4">
-        <v>1</v>
-      </c>
-      <c r="X9" s="4">
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
         <v>4</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="Y9" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>310</v>
       </c>
@@ -2969,68 +2999,71 @@
       <c r="E10" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>2.5099999999999998</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4">
-        <v>1</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4">
-        <v>1</v>
-      </c>
-      <c r="W10" s="4">
-        <v>1</v>
-      </c>
-      <c r="X10" s="4">
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1</v>
+      </c>
+      <c r="X10" s="2">
         <v>5</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>311</v>
       </c>
@@ -3043,68 +3076,71 @@
       <c r="E11" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>2.5277500000000002</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <v>0</v>
-      </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
-        <v>0</v>
-      </c>
-      <c r="U11" s="4">
-        <v>0</v>
-      </c>
-      <c r="V11" s="4">
-        <v>0</v>
-      </c>
-      <c r="W11" s="4">
-        <v>1</v>
-      </c>
-      <c r="X11" s="4">
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2">
         <v>4</v>
       </c>
-      <c r="Y11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -3174,8 +3210,11 @@
       <c r="Y12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -3245,8 +3284,11 @@
       <c r="Y13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -3316,8 +3358,11 @@
       <c r="Y14" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -3387,8 +3432,11 @@
       <c r="Y15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>296</v>
       </c>
@@ -3401,68 +3449,71 @@
       <c r="E16" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>3.0777800000000002</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>1</v>
-      </c>
-      <c r="M16" s="4">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
-        <v>0</v>
-      </c>
-      <c r="U16" s="4">
-        <v>0</v>
-      </c>
-      <c r="V16" s="4">
-        <v>0</v>
-      </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4">
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
         <v>3</v>
       </c>
-      <c r="Y16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -3532,8 +3583,11 @@
       <c r="Y17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -3603,8 +3657,11 @@
       <c r="Y18" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -3674,8 +3731,11 @@
       <c r="Y19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -3745,8 +3805,11 @@
       <c r="Y20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -3816,8 +3879,11 @@
       <c r="Y21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -3887,8 +3953,11 @@
       <c r="Y22" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>35</v>
       </c>
@@ -3958,8 +4027,11 @@
       <c r="Y23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>36</v>
       </c>
@@ -4029,8 +4101,11 @@
       <c r="Y24" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -4100,8 +4175,11 @@
       <c r="Y25" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -4171,8 +4249,11 @@
       <c r="Y26" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -4242,8 +4323,11 @@
       <c r="Y27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -4313,8 +4397,11 @@
       <c r="Y28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>41</v>
       </c>
@@ -4384,8 +4471,11 @@
       <c r="Y29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -4455,8 +4545,11 @@
       <c r="Y30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>43</v>
       </c>
@@ -4526,8 +4619,11 @@
       <c r="Y31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
@@ -4597,8 +4693,11 @@
       <c r="Y32" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>45</v>
       </c>
@@ -4668,8 +4767,11 @@
       <c r="Y33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>46</v>
       </c>
@@ -4739,8 +4841,11 @@
       <c r="Y34" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>47</v>
       </c>
@@ -4810,8 +4915,11 @@
       <c r="Y35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>48</v>
       </c>
@@ -4881,8 +4989,11 @@
       <c r="Y36" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>49</v>
       </c>
@@ -4952,8 +5063,11 @@
       <c r="Y37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>50</v>
       </c>
@@ -5023,8 +5137,11 @@
       <c r="Y38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>51</v>
       </c>
@@ -5094,8 +5211,11 @@
       <c r="Y39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -5165,8 +5285,11 @@
       <c r="Y40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>297</v>
       </c>
@@ -5179,68 +5302,71 @@
       <c r="E41" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="2">
         <v>3.1791499999999999</v>
       </c>
-      <c r="G41" s="4">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4">
-        <v>1</v>
-      </c>
-      <c r="J41" s="4">
-        <v>1</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
-      </c>
-      <c r="L41" s="4">
-        <v>0</v>
-      </c>
-      <c r="M41" s="4">
-        <v>0</v>
-      </c>
-      <c r="N41" s="4">
-        <v>0</v>
-      </c>
-      <c r="O41" s="4">
-        <v>0</v>
-      </c>
-      <c r="P41" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>0</v>
-      </c>
-      <c r="R41" s="4">
-        <v>0</v>
-      </c>
-      <c r="S41" s="4">
-        <v>0</v>
-      </c>
-      <c r="T41" s="4">
-        <v>0</v>
-      </c>
-      <c r="U41" s="4">
-        <v>0</v>
-      </c>
-      <c r="V41" s="4">
-        <v>0</v>
-      </c>
-      <c r="W41" s="4">
-        <v>1</v>
-      </c>
-      <c r="X41" s="4">
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>0</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0</v>
+      </c>
+      <c r="U41" s="2">
+        <v>0</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <v>1</v>
+      </c>
+      <c r="X41" s="2">
         <v>3</v>
       </c>
-      <c r="Y41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>53</v>
       </c>
@@ -5310,8 +5436,11 @@
       <c r="Y42" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -5381,8 +5510,11 @@
       <c r="Y43" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
@@ -5452,8 +5584,11 @@
       <c r="Y44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>298</v>
       </c>
@@ -5469,68 +5604,71 @@
       <c r="E45" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="2">
         <v>2.4166500000000002</v>
       </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4">
-        <v>1</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>0</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4">
-        <v>0</v>
-      </c>
-      <c r="N45" s="4">
-        <v>0</v>
-      </c>
-      <c r="O45" s="4">
-        <v>1</v>
-      </c>
-      <c r="P45" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>0</v>
-      </c>
-      <c r="R45" s="4">
-        <v>0</v>
-      </c>
-      <c r="S45" s="4">
-        <v>0</v>
-      </c>
-      <c r="T45" s="4">
-        <v>0</v>
-      </c>
-      <c r="U45" s="4">
-        <v>1</v>
-      </c>
-      <c r="V45" s="4">
-        <v>0</v>
-      </c>
-      <c r="W45" s="4">
-        <v>1</v>
-      </c>
-      <c r="X45" s="4">
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>0</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
+        <v>1</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <v>1</v>
+      </c>
+      <c r="X45" s="2">
         <v>3</v>
       </c>
-      <c r="Y45" s="4">
+      <c r="Y45" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>324</v>
       </c>
@@ -5543,68 +5681,71 @@
       <c r="E46" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <v>2.46665</v>
       </c>
-      <c r="G46" s="4">
-        <v>0</v>
-      </c>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4">
-        <v>0</v>
-      </c>
-      <c r="J46" s="4">
-        <v>1</v>
-      </c>
-      <c r="K46" s="4">
-        <v>1</v>
-      </c>
-      <c r="L46" s="4">
-        <v>0</v>
-      </c>
-      <c r="M46" s="4">
-        <v>0</v>
-      </c>
-      <c r="N46" s="4">
-        <v>0</v>
-      </c>
-      <c r="O46" s="4">
-        <v>0</v>
-      </c>
-      <c r="P46" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>0</v>
-      </c>
-      <c r="R46" s="4">
-        <v>0</v>
-      </c>
-      <c r="S46" s="4">
-        <v>0</v>
-      </c>
-      <c r="T46" s="4">
-        <v>0</v>
-      </c>
-      <c r="U46" s="4">
-        <v>0</v>
-      </c>
-      <c r="V46" s="4">
-        <v>0</v>
-      </c>
-      <c r="W46" s="4">
-        <v>0</v>
-      </c>
-      <c r="X46" s="4">
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>0</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+      <c r="X46" s="2">
         <v>3</v>
       </c>
-      <c r="Y46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>325</v>
       </c>
@@ -5617,68 +5758,71 @@
       <c r="E47" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="2">
         <v>2.7625999999999999</v>
       </c>
-      <c r="G47" s="4">
-        <v>0</v>
-      </c>
-      <c r="H47" s="4">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>0</v>
-      </c>
-      <c r="J47" s="4">
-        <v>1</v>
-      </c>
-      <c r="K47" s="4">
-        <v>1</v>
-      </c>
-      <c r="L47" s="4">
-        <v>0</v>
-      </c>
-      <c r="M47" s="4">
-        <v>0</v>
-      </c>
-      <c r="N47" s="4">
-        <v>0</v>
-      </c>
-      <c r="O47" s="4">
-        <v>0</v>
-      </c>
-      <c r="P47" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>0</v>
-      </c>
-      <c r="R47" s="4">
-        <v>0</v>
-      </c>
-      <c r="S47" s="4">
-        <v>0</v>
-      </c>
-      <c r="T47" s="4">
-        <v>0</v>
-      </c>
-      <c r="U47" s="4">
-        <v>0</v>
-      </c>
-      <c r="V47" s="4">
-        <v>1</v>
-      </c>
-      <c r="W47" s="4">
-        <v>0</v>
-      </c>
-      <c r="X47" s="4">
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>0</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
+        <v>1</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+      <c r="X47" s="2">
         <v>2</v>
       </c>
-      <c r="Y47" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>326</v>
       </c>
@@ -5691,68 +5835,71 @@
       <c r="E48" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="2">
         <v>2.56331</v>
       </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1</v>
-      </c>
-      <c r="L48" s="4">
-        <v>0</v>
-      </c>
-      <c r="M48" s="4">
-        <v>0</v>
-      </c>
-      <c r="N48" s="4">
-        <v>1</v>
-      </c>
-      <c r="O48" s="4">
-        <v>0</v>
-      </c>
-      <c r="P48" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>0</v>
-      </c>
-      <c r="R48" s="4">
-        <v>0</v>
-      </c>
-      <c r="S48" s="4">
-        <v>0</v>
-      </c>
-      <c r="T48" s="4">
-        <v>0</v>
-      </c>
-      <c r="U48" s="4">
-        <v>0</v>
-      </c>
-      <c r="V48" s="4">
-        <v>0</v>
-      </c>
-      <c r="W48" s="4">
-        <v>1</v>
-      </c>
-      <c r="X48" s="4">
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <v>1</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>0</v>
+      </c>
+      <c r="R48" s="2">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0</v>
+      </c>
+      <c r="V48" s="2">
+        <v>0</v>
+      </c>
+      <c r="W48" s="2">
+        <v>1</v>
+      </c>
+      <c r="X48" s="2">
         <v>4</v>
       </c>
-      <c r="Y48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y48" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>327</v>
       </c>
@@ -5765,68 +5912,71 @@
       <c r="E49" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="2">
         <v>2.5249999999999999</v>
       </c>
-      <c r="G49" s="4">
-        <v>0</v>
-      </c>
-      <c r="H49" s="4">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4">
-        <v>1</v>
-      </c>
-      <c r="J49" s="4">
-        <v>1</v>
-      </c>
-      <c r="K49" s="4">
-        <v>0</v>
-      </c>
-      <c r="L49" s="4">
-        <v>1</v>
-      </c>
-      <c r="M49" s="4">
-        <v>0</v>
-      </c>
-      <c r="N49" s="4">
-        <v>0</v>
-      </c>
-      <c r="O49" s="4">
-        <v>0</v>
-      </c>
-      <c r="P49" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>0</v>
-      </c>
-      <c r="R49" s="4">
-        <v>0</v>
-      </c>
-      <c r="S49" s="4">
-        <v>0</v>
-      </c>
-      <c r="T49" s="4">
-        <v>0</v>
-      </c>
-      <c r="U49" s="4">
-        <v>1</v>
-      </c>
-      <c r="V49" s="4">
-        <v>0</v>
-      </c>
-      <c r="W49" s="4">
-        <v>1</v>
-      </c>
-      <c r="X49" s="4">
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>0</v>
+      </c>
+      <c r="R49" s="2">
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <v>0</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0</v>
+      </c>
+      <c r="U49" s="2">
+        <v>1</v>
+      </c>
+      <c r="V49" s="2">
+        <v>0</v>
+      </c>
+      <c r="W49" s="2">
+        <v>1</v>
+      </c>
+      <c r="X49" s="2">
         <v>3</v>
       </c>
-      <c r="Y49" s="4">
+      <c r="Y49" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>328</v>
       </c>
@@ -5839,68 +5989,71 @@
       <c r="E50" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="2">
         <v>2.5499999999999998</v>
       </c>
-      <c r="G50" s="4">
-        <v>0</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4">
-        <v>1</v>
-      </c>
-      <c r="K50" s="4">
-        <v>0</v>
-      </c>
-      <c r="L50" s="4">
-        <v>0</v>
-      </c>
-      <c r="M50" s="4">
-        <v>0</v>
-      </c>
-      <c r="N50" s="4">
-        <v>0</v>
-      </c>
-      <c r="O50" s="4">
-        <v>0</v>
-      </c>
-      <c r="P50" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="4">
-        <v>0</v>
-      </c>
-      <c r="R50" s="4">
-        <v>0</v>
-      </c>
-      <c r="S50" s="4">
-        <v>0</v>
-      </c>
-      <c r="T50" s="4">
-        <v>0</v>
-      </c>
-      <c r="U50" s="4">
-        <v>1</v>
-      </c>
-      <c r="V50" s="4">
-        <v>0</v>
-      </c>
-      <c r="W50" s="4">
-        <v>1</v>
-      </c>
-      <c r="X50" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y50" s="4">
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>0</v>
+      </c>
+      <c r="R50" s="2">
+        <v>0</v>
+      </c>
+      <c r="S50" s="2">
+        <v>0</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0</v>
+      </c>
+      <c r="U50" s="2">
+        <v>1</v>
+      </c>
+      <c r="V50" s="2">
+        <v>0</v>
+      </c>
+      <c r="W50" s="2">
+        <v>1</v>
+      </c>
+      <c r="X50" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>329</v>
       </c>
@@ -5913,68 +6066,71 @@
       <c r="E51" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="2">
         <v>2.0249999999999999</v>
       </c>
-      <c r="G51" s="4">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4">
-        <v>1</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0</v>
-      </c>
-      <c r="J51" s="4">
-        <v>1</v>
-      </c>
-      <c r="K51" s="4">
-        <v>0</v>
-      </c>
-      <c r="L51" s="4">
-        <v>1</v>
-      </c>
-      <c r="M51" s="4">
-        <v>0</v>
-      </c>
-      <c r="N51" s="4">
-        <v>0</v>
-      </c>
-      <c r="O51" s="4">
-        <v>0</v>
-      </c>
-      <c r="P51" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>0</v>
-      </c>
-      <c r="R51" s="4">
-        <v>0</v>
-      </c>
-      <c r="S51" s="4">
-        <v>0</v>
-      </c>
-      <c r="T51" s="4">
-        <v>0</v>
-      </c>
-      <c r="U51" s="4">
-        <v>0</v>
-      </c>
-      <c r="V51" s="4">
-        <v>0</v>
-      </c>
-      <c r="W51" s="4">
-        <v>0</v>
-      </c>
-      <c r="X51" s="4">
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>0</v>
+      </c>
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2">
+        <v>0</v>
+      </c>
+      <c r="V51" s="2">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+      <c r="X51" s="2">
         <v>3</v>
       </c>
-      <c r="Y51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>56</v>
       </c>
@@ -6044,8 +6200,11 @@
       <c r="Y52" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
@@ -6115,8 +6274,11 @@
       <c r="Y53" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>58</v>
       </c>
@@ -6186,8 +6348,11 @@
       <c r="Y54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
@@ -6257,8 +6422,11 @@
       <c r="Y55" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
@@ -6328,8 +6496,11 @@
       <c r="Y56" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
@@ -6399,8 +6570,11 @@
       <c r="Y57" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
@@ -6470,8 +6644,11 @@
       <c r="Y58" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
@@ -6541,8 +6718,11 @@
       <c r="Y59" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
@@ -6612,8 +6792,11 @@
       <c r="Y60" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
@@ -6683,8 +6866,11 @@
       <c r="Y61" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
@@ -6754,8 +6940,11 @@
       <c r="Y62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>330</v>
       </c>
@@ -6768,68 +6957,71 @@
       <c r="E63" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="2">
         <v>2.6138499999999998</v>
       </c>
-      <c r="G63" s="4">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
-        <v>1</v>
-      </c>
-      <c r="I63" s="4">
-        <v>1</v>
-      </c>
-      <c r="J63" s="4">
-        <v>0</v>
-      </c>
-      <c r="K63" s="4">
-        <v>0</v>
-      </c>
-      <c r="L63" s="4">
-        <v>0</v>
-      </c>
-      <c r="M63" s="4">
-        <v>0</v>
-      </c>
-      <c r="N63" s="4">
-        <v>0</v>
-      </c>
-      <c r="O63" s="4">
-        <v>1</v>
-      </c>
-      <c r="P63" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="4">
-        <v>0</v>
-      </c>
-      <c r="R63" s="4">
-        <v>0</v>
-      </c>
-      <c r="S63" s="4">
-        <v>0</v>
-      </c>
-      <c r="T63" s="4">
-        <v>0</v>
-      </c>
-      <c r="U63" s="4">
-        <v>0</v>
-      </c>
-      <c r="V63" s="4">
-        <v>0</v>
-      </c>
-      <c r="W63" s="4">
-        <v>0</v>
-      </c>
-      <c r="X63" s="4">
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2">
+        <v>1</v>
+      </c>
+      <c r="P63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>0</v>
+      </c>
+      <c r="R63" s="2">
+        <v>0</v>
+      </c>
+      <c r="S63" s="2">
+        <v>0</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2">
+        <v>0</v>
+      </c>
+      <c r="W63" s="2">
+        <v>0</v>
+      </c>
+      <c r="X63" s="2">
         <v>3</v>
       </c>
-      <c r="Y63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>67</v>
       </c>
@@ -6896,8 +7088,11 @@
       <c r="Y64" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>68</v>
       </c>
@@ -6964,8 +7159,11 @@
       <c r="Y65" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>69</v>
       </c>
@@ -7032,8 +7230,11 @@
       <c r="Y66" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
@@ -7100,8 +7301,11 @@
       <c r="Y67" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
@@ -7168,8 +7372,11 @@
       <c r="Y68" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
@@ -7236,8 +7443,11 @@
       <c r="Y69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
@@ -7304,8 +7514,11 @@
       <c r="Y70" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
@@ -7372,8 +7585,11 @@
       <c r="Y71" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>75</v>
       </c>
@@ -7440,8 +7656,11 @@
       <c r="Y72" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>76</v>
       </c>
@@ -7508,8 +7727,11 @@
       <c r="Y73" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>77</v>
       </c>
@@ -7576,8 +7798,11 @@
       <c r="Y74" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>78</v>
       </c>
@@ -7644,8 +7869,11 @@
       <c r="Y75" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>79</v>
       </c>
@@ -7712,8 +7940,11 @@
       <c r="Y76" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
@@ -7780,8 +8011,11 @@
       <c r="Y77" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>331</v>
       </c>
@@ -7794,68 +8028,71 @@
       <c r="E78" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="2">
         <v>3.46665</v>
       </c>
-      <c r="G78" s="4">
-        <v>1</v>
-      </c>
-      <c r="H78" s="4">
-        <v>0</v>
-      </c>
-      <c r="I78" s="4">
-        <v>0</v>
-      </c>
-      <c r="J78" s="4">
-        <v>0</v>
-      </c>
-      <c r="K78" s="4">
-        <v>0</v>
-      </c>
-      <c r="L78" s="4">
-        <v>1</v>
-      </c>
-      <c r="M78" s="4">
-        <v>1</v>
-      </c>
-      <c r="N78" s="4">
-        <v>0</v>
-      </c>
-      <c r="O78" s="4">
-        <v>0</v>
-      </c>
-      <c r="P78" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="4">
-        <v>0</v>
-      </c>
-      <c r="R78" s="4">
-        <v>0</v>
-      </c>
-      <c r="S78" s="4">
-        <v>1</v>
-      </c>
-      <c r="T78" s="4">
-        <v>1</v>
-      </c>
-      <c r="U78" s="4">
-        <v>0</v>
-      </c>
-      <c r="V78" s="4">
-        <v>1</v>
-      </c>
-      <c r="W78" s="4">
-        <v>1</v>
-      </c>
-      <c r="X78" s="4">
+      <c r="G78" s="2">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2">
+        <v>1</v>
+      </c>
+      <c r="M78" s="2">
+        <v>1</v>
+      </c>
+      <c r="N78" s="2">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
+        <v>0</v>
+      </c>
+      <c r="P78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>0</v>
+      </c>
+      <c r="R78" s="2">
+        <v>0</v>
+      </c>
+      <c r="S78" s="2">
+        <v>1</v>
+      </c>
+      <c r="T78" s="2">
+        <v>1</v>
+      </c>
+      <c r="U78" s="2">
+        <v>0</v>
+      </c>
+      <c r="V78" s="2">
+        <v>1</v>
+      </c>
+      <c r="W78" s="2">
+        <v>1</v>
+      </c>
+      <c r="X78" s="2">
         <v>3</v>
       </c>
-      <c r="Y78" s="4">
+      <c r="Y78" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>81</v>
       </c>
@@ -7922,8 +8159,11 @@
       <c r="Y79" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
@@ -7990,8 +8230,11 @@
       <c r="Y80" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
@@ -8058,8 +8301,11 @@
       <c r="Y81" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z81" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -8126,8 +8372,11 @@
       <c r="Y82" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
@@ -8194,8 +8443,11 @@
       <c r="Y83" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z83" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
@@ -8262,8 +8514,11 @@
       <c r="Y84" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
@@ -8330,8 +8585,11 @@
       <c r="Y85" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
@@ -8398,8 +8656,11 @@
       <c r="Y86" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
@@ -8466,8 +8727,11 @@
       <c r="Y87" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
@@ -8534,8 +8798,11 @@
       <c r="Y88" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
@@ -8602,8 +8869,11 @@
       <c r="Y89" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>332</v>
       </c>
@@ -8616,68 +8886,71 @@
       <c r="E90" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="2">
         <v>2.58</v>
       </c>
-      <c r="G90" s="4">
-        <v>1</v>
-      </c>
-      <c r="H90" s="4">
-        <v>0</v>
-      </c>
-      <c r="I90" s="4">
-        <v>1</v>
-      </c>
-      <c r="J90" s="4">
-        <v>1</v>
-      </c>
-      <c r="K90" s="4">
-        <v>0</v>
-      </c>
-      <c r="L90" s="4">
-        <v>1</v>
-      </c>
-      <c r="M90" s="4">
-        <v>0</v>
-      </c>
-      <c r="N90" s="4">
-        <v>0</v>
-      </c>
-      <c r="O90" s="4">
-        <v>1</v>
-      </c>
-      <c r="P90" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="4">
-        <v>0</v>
-      </c>
-      <c r="R90" s="4">
-        <v>0</v>
-      </c>
-      <c r="S90" s="4">
-        <v>0</v>
-      </c>
-      <c r="T90" s="4">
-        <v>0</v>
-      </c>
-      <c r="U90" s="4">
-        <v>1</v>
-      </c>
-      <c r="V90" s="4">
-        <v>0</v>
-      </c>
-      <c r="W90" s="4">
-        <v>1</v>
-      </c>
-      <c r="X90" s="4">
+      <c r="G90" s="2">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>1</v>
+      </c>
+      <c r="M90" s="2">
+        <v>0</v>
+      </c>
+      <c r="N90" s="2">
+        <v>0</v>
+      </c>
+      <c r="O90" s="2">
+        <v>1</v>
+      </c>
+      <c r="P90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>0</v>
+      </c>
+      <c r="R90" s="2">
+        <v>0</v>
+      </c>
+      <c r="S90" s="2">
+        <v>0</v>
+      </c>
+      <c r="T90" s="2">
+        <v>0</v>
+      </c>
+      <c r="U90" s="2">
+        <v>1</v>
+      </c>
+      <c r="V90" s="2">
+        <v>0</v>
+      </c>
+      <c r="W90" s="2">
+        <v>1</v>
+      </c>
+      <c r="X90" s="2">
         <v>5</v>
       </c>
-      <c r="Y90" s="4">
+      <c r="Y90" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>333</v>
       </c>
@@ -8690,68 +8963,71 @@
       <c r="E91" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="F91" s="4">
+      <c r="F91" s="2">
         <v>2.3642799999999999</v>
       </c>
-      <c r="G91" s="4">
-        <v>1</v>
-      </c>
-      <c r="H91" s="4">
-        <v>1</v>
-      </c>
-      <c r="I91" s="4">
-        <v>0</v>
-      </c>
-      <c r="J91" s="4">
-        <v>1</v>
-      </c>
-      <c r="K91" s="4">
-        <v>0</v>
-      </c>
-      <c r="L91" s="4">
-        <v>1</v>
-      </c>
-      <c r="M91" s="4">
-        <v>0</v>
-      </c>
-      <c r="N91" s="4">
-        <v>0</v>
-      </c>
-      <c r="O91" s="4">
-        <v>1</v>
-      </c>
-      <c r="P91" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="4">
-        <v>0</v>
-      </c>
-      <c r="R91" s="4">
-        <v>0</v>
-      </c>
-      <c r="S91" s="4">
-        <v>0</v>
-      </c>
-      <c r="T91" s="4">
-        <v>0</v>
-      </c>
-      <c r="U91" s="4">
-        <v>1</v>
-      </c>
-      <c r="V91" s="4">
-        <v>0</v>
-      </c>
-      <c r="W91" s="4">
-        <v>1</v>
-      </c>
-      <c r="X91" s="4">
+      <c r="G91" s="2">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2">
+        <v>1</v>
+      </c>
+      <c r="I91" s="2">
+        <v>0</v>
+      </c>
+      <c r="J91" s="2">
+        <v>1</v>
+      </c>
+      <c r="K91" s="2">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>1</v>
+      </c>
+      <c r="M91" s="2">
+        <v>0</v>
+      </c>
+      <c r="N91" s="2">
+        <v>0</v>
+      </c>
+      <c r="O91" s="2">
+        <v>1</v>
+      </c>
+      <c r="P91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>0</v>
+      </c>
+      <c r="R91" s="2">
+        <v>0</v>
+      </c>
+      <c r="S91" s="2">
+        <v>0</v>
+      </c>
+      <c r="T91" s="2">
+        <v>0</v>
+      </c>
+      <c r="U91" s="2">
+        <v>1</v>
+      </c>
+      <c r="V91" s="2">
+        <v>0</v>
+      </c>
+      <c r="W91" s="2">
+        <v>1</v>
+      </c>
+      <c r="X91" s="2">
         <v>5</v>
       </c>
-      <c r="Y91" s="4">
+      <c r="Y91" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
@@ -8818,8 +9094,11 @@
       <c r="Y92" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>93</v>
       </c>
@@ -8886,8 +9165,11 @@
       <c r="Y93" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>94</v>
       </c>
@@ -8954,8 +9236,11 @@
       <c r="Y94" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z94" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -9022,8 +9307,11 @@
       <c r="Y95" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -9090,8 +9378,11 @@
       <c r="Y96" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>97</v>
       </c>
@@ -9158,8 +9449,11 @@
       <c r="Y97" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z97" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>98</v>
       </c>
@@ -9226,8 +9520,11 @@
       <c r="Y98" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>99</v>
       </c>
@@ -9294,8 +9591,11 @@
       <c r="Y99" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z99" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>100</v>
       </c>
@@ -9362,8 +9662,11 @@
       <c r="Y100" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z100" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>101</v>
       </c>
@@ -9430,8 +9733,11 @@
       <c r="Y101" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>102</v>
       </c>
@@ -9498,8 +9804,11 @@
       <c r="Y102" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>103</v>
       </c>
@@ -9566,8 +9875,11 @@
       <c r="Y103" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>104</v>
       </c>
@@ -9634,8 +9946,11 @@
       <c r="Y104" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>105</v>
       </c>
@@ -9702,8 +10017,11 @@
       <c r="Y105" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>106</v>
       </c>
@@ -9770,8 +10088,11 @@
       <c r="Y106" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>107</v>
       </c>
@@ -9838,8 +10159,11 @@
       <c r="Y107" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>108</v>
       </c>
@@ -9906,8 +10230,11 @@
       <c r="Y108" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>109</v>
       </c>
@@ -9974,8 +10301,11 @@
       <c r="Y109" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
@@ -10042,8 +10372,11 @@
       <c r="Y110" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>111</v>
       </c>
@@ -10110,8 +10443,11 @@
       <c r="Y111" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>112</v>
       </c>
@@ -10178,8 +10514,11 @@
       <c r="Y112" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>113</v>
       </c>
@@ -10246,8 +10585,11 @@
       <c r="Y113" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>114</v>
       </c>
@@ -10314,8 +10656,11 @@
       <c r="Y114" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>115</v>
       </c>
@@ -10382,8 +10727,11 @@
       <c r="Y115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>116</v>
       </c>
@@ -10450,8 +10798,11 @@
       <c r="Y116" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>117</v>
       </c>
@@ -10518,8 +10869,11 @@
       <c r="Y117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>118</v>
       </c>
@@ -10586,8 +10940,11 @@
       <c r="Y118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>119</v>
       </c>
@@ -10654,8 +11011,11 @@
       <c r="Y119" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>120</v>
       </c>
@@ -10722,8 +11082,11 @@
       <c r="Y120" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>121</v>
       </c>
@@ -10790,8 +11153,11 @@
       <c r="Y121" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>313</v>
       </c>
@@ -10804,68 +11170,71 @@
       <c r="E122" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F122" s="4">
+      <c r="F122" s="2">
         <v>3.55</v>
       </c>
-      <c r="G122" s="4">
-        <v>1</v>
-      </c>
-      <c r="H122" s="4">
-        <v>0</v>
-      </c>
-      <c r="I122" s="4">
-        <v>0</v>
-      </c>
-      <c r="J122" s="4">
-        <v>1</v>
-      </c>
-      <c r="K122" s="4">
-        <v>0</v>
-      </c>
-      <c r="L122" s="4">
-        <v>1</v>
-      </c>
-      <c r="M122" s="4">
-        <v>0</v>
-      </c>
-      <c r="N122" s="4">
-        <v>0</v>
-      </c>
-      <c r="O122" s="4">
-        <v>0</v>
-      </c>
-      <c r="P122" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q122" s="4">
-        <v>0</v>
-      </c>
-      <c r="R122" s="4">
-        <v>0</v>
-      </c>
-      <c r="S122" s="4">
-        <v>0</v>
-      </c>
-      <c r="T122" s="4">
-        <v>1</v>
-      </c>
-      <c r="U122" s="4">
-        <v>0</v>
-      </c>
-      <c r="V122" s="4">
-        <v>1</v>
-      </c>
-      <c r="W122" s="4">
-        <v>0</v>
-      </c>
-      <c r="X122" s="4">
+      <c r="G122" s="2">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2">
+        <v>0</v>
+      </c>
+      <c r="I122" s="2">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2">
+        <v>1</v>
+      </c>
+      <c r="K122" s="2">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2">
+        <v>1</v>
+      </c>
+      <c r="M122" s="2">
+        <v>0</v>
+      </c>
+      <c r="N122" s="2">
+        <v>0</v>
+      </c>
+      <c r="O122" s="2">
+        <v>0</v>
+      </c>
+      <c r="P122" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>0</v>
+      </c>
+      <c r="R122" s="2">
+        <v>0</v>
+      </c>
+      <c r="S122" s="2">
+        <v>0</v>
+      </c>
+      <c r="T122" s="2">
+        <v>1</v>
+      </c>
+      <c r="U122" s="2">
+        <v>0</v>
+      </c>
+      <c r="V122" s="2">
+        <v>1</v>
+      </c>
+      <c r="W122" s="2">
+        <v>0</v>
+      </c>
+      <c r="X122" s="2">
         <v>3</v>
       </c>
-      <c r="Y122" s="4">
+      <c r="Y122" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>314</v>
       </c>
@@ -10878,143 +11247,149 @@
       <c r="E123" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F123" s="4">
+      <c r="F123" s="2">
         <v>4.3649550000000001</v>
       </c>
-      <c r="G123" s="4">
-        <v>1</v>
-      </c>
-      <c r="H123" s="4">
-        <v>0</v>
-      </c>
-      <c r="I123" s="4">
-        <v>1</v>
-      </c>
-      <c r="J123" s="4">
-        <v>1</v>
-      </c>
-      <c r="K123" s="4">
-        <v>1</v>
-      </c>
-      <c r="L123" s="4">
-        <v>1</v>
-      </c>
-      <c r="M123" s="4">
-        <v>1</v>
-      </c>
-      <c r="N123" s="4">
-        <v>0</v>
-      </c>
-      <c r="O123" s="4">
-        <v>0</v>
-      </c>
-      <c r="P123" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q123" s="4">
-        <v>0</v>
-      </c>
-      <c r="R123" s="4">
-        <v>0</v>
-      </c>
-      <c r="S123" s="4">
-        <v>0</v>
-      </c>
-      <c r="T123" s="4">
-        <v>0</v>
-      </c>
-      <c r="U123" s="4">
-        <v>0</v>
-      </c>
-      <c r="V123" s="4">
-        <v>1</v>
-      </c>
-      <c r="W123" s="4">
-        <v>1</v>
-      </c>
-      <c r="X123" s="4">
+      <c r="G123" s="2">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2">
+        <v>0</v>
+      </c>
+      <c r="I123" s="2">
+        <v>1</v>
+      </c>
+      <c r="J123" s="2">
+        <v>1</v>
+      </c>
+      <c r="K123" s="2">
+        <v>1</v>
+      </c>
+      <c r="L123" s="2">
+        <v>1</v>
+      </c>
+      <c r="M123" s="2">
+        <v>1</v>
+      </c>
+      <c r="N123" s="2">
+        <v>0</v>
+      </c>
+      <c r="O123" s="2">
+        <v>0</v>
+      </c>
+      <c r="P123" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>0</v>
+      </c>
+      <c r="R123" s="2">
+        <v>0</v>
+      </c>
+      <c r="S123" s="2">
+        <v>0</v>
+      </c>
+      <c r="T123" s="2">
+        <v>0</v>
+      </c>
+      <c r="U123" s="2">
+        <v>0</v>
+      </c>
+      <c r="V123" s="2">
+        <v>1</v>
+      </c>
+      <c r="W123" s="2">
+        <v>1</v>
+      </c>
+      <c r="X123" s="2">
         <v>6</v>
       </c>
-      <c r="Y123" s="4">
+      <c r="Y123" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="6" t="s">
+      <c r="Z123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
         <v>316</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C124" s="7"/>
+      <c r="C124" s="6"/>
       <c r="D124" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F124" s="4">
+      <c r="F124" s="2">
         <v>3.5499849999999999</v>
       </c>
-      <c r="G124" s="4">
-        <v>1</v>
-      </c>
-      <c r="H124" s="4">
-        <v>0</v>
-      </c>
-      <c r="I124" s="4">
-        <v>1</v>
-      </c>
-      <c r="J124" s="4">
-        <v>0</v>
-      </c>
-      <c r="K124" s="4">
-        <v>1</v>
-      </c>
-      <c r="L124" s="4">
-        <v>1</v>
-      </c>
-      <c r="M124" s="4">
-        <v>1</v>
-      </c>
-      <c r="N124" s="4">
-        <v>0</v>
-      </c>
-      <c r="O124" s="4">
-        <v>0</v>
-      </c>
-      <c r="P124" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q124" s="4">
-        <v>0</v>
-      </c>
-      <c r="R124" s="4">
-        <v>0</v>
-      </c>
-      <c r="S124" s="4">
-        <v>0</v>
-      </c>
-      <c r="T124" s="4">
-        <v>0</v>
-      </c>
-      <c r="U124" s="4">
-        <v>0</v>
-      </c>
-      <c r="V124" s="4">
-        <v>1</v>
-      </c>
-      <c r="W124" s="4">
-        <v>1</v>
-      </c>
-      <c r="X124" s="4">
+      <c r="G124" s="2">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0</v>
+      </c>
+      <c r="I124" s="2">
+        <v>1</v>
+      </c>
+      <c r="J124" s="2">
+        <v>0</v>
+      </c>
+      <c r="K124" s="2">
+        <v>1</v>
+      </c>
+      <c r="L124" s="2">
+        <v>1</v>
+      </c>
+      <c r="M124" s="2">
+        <v>1</v>
+      </c>
+      <c r="N124" s="2">
+        <v>0</v>
+      </c>
+      <c r="O124" s="2">
+        <v>0</v>
+      </c>
+      <c r="P124" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>0</v>
+      </c>
+      <c r="R124" s="2">
+        <v>0</v>
+      </c>
+      <c r="S124" s="2">
+        <v>0</v>
+      </c>
+      <c r="T124" s="2">
+        <v>0</v>
+      </c>
+      <c r="U124" s="2">
+        <v>0</v>
+      </c>
+      <c r="V124" s="2">
+        <v>1</v>
+      </c>
+      <c r="W124" s="2">
+        <v>1</v>
+      </c>
+      <c r="X124" s="2">
         <v>5</v>
       </c>
-      <c r="Y124" s="4">
+      <c r="Y124" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>122</v>
       </c>
@@ -11081,8 +11456,11 @@
       <c r="Y125" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>123</v>
       </c>
@@ -11149,8 +11527,11 @@
       <c r="Y126" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>124</v>
       </c>
@@ -11217,8 +11598,11 @@
       <c r="Y127" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>125</v>
       </c>
@@ -11285,8 +11669,11 @@
       <c r="Y128" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>126</v>
       </c>
@@ -11353,8 +11740,11 @@
       <c r="Y129" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>127</v>
       </c>
@@ -11421,8 +11811,11 @@
       <c r="Y130" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>128</v>
       </c>
@@ -11489,8 +11882,11 @@
       <c r="Y131" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>129</v>
       </c>
@@ -11557,8 +11953,11 @@
       <c r="Y132" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>130</v>
       </c>
@@ -11625,8 +12024,11 @@
       <c r="Y133" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>131</v>
       </c>
@@ -11693,8 +12095,11 @@
       <c r="Y134" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>334</v>
       </c>
@@ -11707,68 +12112,71 @@
       <c r="E135" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F135" s="4">
+      <c r="F135" s="2">
         <v>7.8710000000000004</v>
       </c>
-      <c r="G135" s="4">
-        <v>1</v>
-      </c>
-      <c r="H135" s="4">
-        <v>0</v>
-      </c>
-      <c r="I135" s="4">
-        <v>1</v>
-      </c>
-      <c r="J135" s="4">
-        <v>0</v>
-      </c>
-      <c r="K135" s="4">
-        <v>0</v>
-      </c>
-      <c r="L135" s="4">
-        <v>0</v>
-      </c>
-      <c r="M135" s="4">
-        <v>0</v>
-      </c>
-      <c r="N135" s="4">
-        <v>1</v>
-      </c>
-      <c r="O135" s="4">
-        <v>0</v>
-      </c>
-      <c r="P135" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q135" s="4">
-        <v>0</v>
-      </c>
-      <c r="R135" s="4">
-        <v>0</v>
-      </c>
-      <c r="S135" s="4">
-        <v>1</v>
-      </c>
-      <c r="T135" s="4">
-        <v>0</v>
-      </c>
-      <c r="U135" s="4">
-        <v>1</v>
-      </c>
-      <c r="V135" s="4">
-        <v>0</v>
-      </c>
-      <c r="W135" s="4">
-        <v>0</v>
-      </c>
-      <c r="X135" s="4">
+      <c r="G135" s="2">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0</v>
+      </c>
+      <c r="I135" s="2">
+        <v>1</v>
+      </c>
+      <c r="J135" s="2">
+        <v>0</v>
+      </c>
+      <c r="K135" s="2">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2">
+        <v>0</v>
+      </c>
+      <c r="M135" s="2">
+        <v>0</v>
+      </c>
+      <c r="N135" s="2">
+        <v>1</v>
+      </c>
+      <c r="O135" s="2">
+        <v>0</v>
+      </c>
+      <c r="P135" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>0</v>
+      </c>
+      <c r="R135" s="2">
+        <v>0</v>
+      </c>
+      <c r="S135" s="2">
+        <v>1</v>
+      </c>
+      <c r="T135" s="2">
+        <v>0</v>
+      </c>
+      <c r="U135" s="2">
+        <v>1</v>
+      </c>
+      <c r="V135" s="2">
+        <v>0</v>
+      </c>
+      <c r="W135" s="2">
+        <v>0</v>
+      </c>
+      <c r="X135" s="2">
         <v>3</v>
       </c>
-      <c r="Y135" s="4">
+      <c r="Y135" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>132</v>
       </c>
@@ -11835,8 +12243,11 @@
       <c r="Y136" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>133</v>
       </c>
@@ -11903,8 +12314,11 @@
       <c r="Y137" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>134</v>
       </c>
@@ -11971,8 +12385,11 @@
       <c r="Y138" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>135</v>
       </c>
@@ -12039,8 +12456,11 @@
       <c r="Y139" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>136</v>
       </c>
@@ -12107,8 +12527,11 @@
       <c r="Y140" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>137</v>
       </c>
@@ -12175,8 +12598,11 @@
       <c r="Y141" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>138</v>
       </c>
@@ -12243,79 +12669,85 @@
       <c r="Y142" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+      <c r="Z142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A143" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E143" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G143" s="4" t="s">
+      <c r="G143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H143" s="4" t="s">
+      <c r="H143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I143" s="4" t="s">
+      <c r="I143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="J143" s="4" t="s">
+      <c r="J143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K143" s="4" t="s">
+      <c r="K143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="L143" s="4" t="s">
+      <c r="L143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="M143" s="4" t="s">
+      <c r="M143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="N143" s="4" t="s">
+      <c r="N143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="O143" s="4" t="s">
+      <c r="O143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="P143" s="4" t="s">
+      <c r="P143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="Q143" s="4" t="s">
+      <c r="Q143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="R143" s="4" t="s">
+      <c r="R143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="S143" s="4" t="s">
+      <c r="S143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="T143" s="4" t="s">
+      <c r="T143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="U143" s="4" t="s">
+      <c r="U143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="V143" s="4" t="s">
+      <c r="V143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W143" s="4" t="s">
+      <c r="W143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="X143" s="4" t="s">
+      <c r="X143" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="Y143" s="4" t="s">
+      <c r="Y143" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>139</v>
       </c>
@@ -12382,8 +12814,11 @@
       <c r="Y144" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>140</v>
       </c>
@@ -12450,8 +12885,11 @@
       <c r="Y145" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>141</v>
       </c>
@@ -12518,8 +12956,11 @@
       <c r="Y146" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>142</v>
       </c>
@@ -12586,8 +13027,11 @@
       <c r="Y147" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>143</v>
       </c>
@@ -12654,8 +13098,11 @@
       <c r="Y148" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>144</v>
       </c>
@@ -12722,8 +13169,11 @@
       <c r="Y149" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>145</v>
       </c>
@@ -12790,8 +13240,11 @@
       <c r="Y150" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>146</v>
       </c>
@@ -12858,8 +13311,11 @@
       <c r="Y151" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>147</v>
       </c>
@@ -12926,8 +13382,11 @@
       <c r="Y152" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>148</v>
       </c>
@@ -12994,8 +13453,11 @@
       <c r="Y153" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>149</v>
       </c>
@@ -13062,8 +13524,11 @@
       <c r="Y154" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>150</v>
       </c>
@@ -13130,8 +13595,11 @@
       <c r="Y155" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>151</v>
       </c>
@@ -13198,8 +13666,11 @@
       <c r="Y156" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>152</v>
       </c>
@@ -13266,8 +13737,11 @@
       <c r="Y157" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>153</v>
       </c>
@@ -13334,8 +13808,11 @@
       <c r="Y158" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>303</v>
       </c>
@@ -13348,68 +13825,71 @@
       <c r="E159" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F159" s="4">
+      <c r="F159" s="2">
         <v>5.4375</v>
       </c>
-      <c r="G159" s="4">
-        <v>1</v>
-      </c>
-      <c r="H159" s="4">
-        <v>0</v>
-      </c>
-      <c r="I159" s="4">
-        <v>1</v>
-      </c>
-      <c r="J159" s="4">
-        <v>1</v>
-      </c>
-      <c r="K159" s="4">
-        <v>0</v>
-      </c>
-      <c r="L159" s="4">
-        <v>0</v>
-      </c>
-      <c r="M159" s="4">
-        <v>0</v>
-      </c>
-      <c r="N159" s="4">
-        <v>0</v>
-      </c>
-      <c r="O159" s="4">
-        <v>0</v>
-      </c>
-      <c r="P159" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q159" s="4">
-        <v>0</v>
-      </c>
-      <c r="R159" s="4">
-        <v>1</v>
-      </c>
-      <c r="S159" s="4">
-        <v>0</v>
-      </c>
-      <c r="T159" s="4">
-        <v>0</v>
-      </c>
-      <c r="U159" s="4">
-        <v>0</v>
-      </c>
-      <c r="V159" s="4">
-        <v>0</v>
-      </c>
-      <c r="W159" s="4">
-        <v>1</v>
-      </c>
-      <c r="X159" s="4">
+      <c r="G159" s="2">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+      <c r="I159" s="2">
+        <v>1</v>
+      </c>
+      <c r="J159" s="2">
+        <v>1</v>
+      </c>
+      <c r="K159" s="2">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2">
+        <v>0</v>
+      </c>
+      <c r="M159" s="2">
+        <v>0</v>
+      </c>
+      <c r="N159" s="2">
+        <v>0</v>
+      </c>
+      <c r="O159" s="2">
+        <v>0</v>
+      </c>
+      <c r="P159" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="2">
+        <v>0</v>
+      </c>
+      <c r="R159" s="2">
+        <v>1</v>
+      </c>
+      <c r="S159" s="2">
+        <v>0</v>
+      </c>
+      <c r="T159" s="2">
+        <v>0</v>
+      </c>
+      <c r="U159" s="2">
+        <v>0</v>
+      </c>
+      <c r="V159" s="2">
+        <v>0</v>
+      </c>
+      <c r="W159" s="2">
+        <v>1</v>
+      </c>
+      <c r="X159" s="2">
         <v>3</v>
       </c>
-      <c r="Y159" s="4">
+      <c r="Y159" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>304</v>
       </c>
@@ -13422,68 +13902,71 @@
       <c r="E160" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F160" s="4">
+      <c r="F160" s="2">
         <v>5.2249999999999996</v>
       </c>
-      <c r="G160" s="4">
-        <v>0</v>
-      </c>
-      <c r="H160" s="4">
-        <v>0</v>
-      </c>
-      <c r="I160" s="4">
-        <v>0</v>
-      </c>
-      <c r="J160" s="4">
-        <v>1</v>
-      </c>
-      <c r="K160" s="4">
-        <v>0</v>
-      </c>
-      <c r="L160" s="4">
-        <v>0</v>
-      </c>
-      <c r="M160" s="4">
-        <v>0</v>
-      </c>
-      <c r="N160" s="4">
-        <v>0</v>
-      </c>
-      <c r="O160" s="4">
-        <v>0</v>
-      </c>
-      <c r="P160" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q160" s="4">
-        <v>0</v>
-      </c>
-      <c r="R160" s="4">
-        <v>1</v>
-      </c>
-      <c r="S160" s="4">
-        <v>0</v>
-      </c>
-      <c r="T160" s="4">
-        <v>0</v>
-      </c>
-      <c r="U160" s="4">
-        <v>0</v>
-      </c>
-      <c r="V160" s="4">
-        <v>0</v>
-      </c>
-      <c r="W160" s="4">
-        <v>1</v>
-      </c>
-      <c r="X160" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y160" s="4">
+      <c r="G160" s="2">
+        <v>0</v>
+      </c>
+      <c r="H160" s="2">
+        <v>0</v>
+      </c>
+      <c r="I160" s="2">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2">
+        <v>1</v>
+      </c>
+      <c r="K160" s="2">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2">
+        <v>0</v>
+      </c>
+      <c r="M160" s="2">
+        <v>0</v>
+      </c>
+      <c r="N160" s="2">
+        <v>0</v>
+      </c>
+      <c r="O160" s="2">
+        <v>0</v>
+      </c>
+      <c r="P160" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="2">
+        <v>0</v>
+      </c>
+      <c r="R160" s="2">
+        <v>1</v>
+      </c>
+      <c r="S160" s="2">
+        <v>0</v>
+      </c>
+      <c r="T160" s="2">
+        <v>0</v>
+      </c>
+      <c r="U160" s="2">
+        <v>0</v>
+      </c>
+      <c r="V160" s="2">
+        <v>0</v>
+      </c>
+      <c r="W160" s="2">
+        <v>1</v>
+      </c>
+      <c r="X160" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y160" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>305</v>
       </c>
@@ -13496,68 +13979,71 @@
       <c r="E161" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="F161" s="4">
+      <c r="F161" s="2">
         <v>6.4</v>
       </c>
-      <c r="G161" s="4">
-        <v>0</v>
-      </c>
-      <c r="H161" s="4">
-        <v>0</v>
-      </c>
-      <c r="I161" s="4">
-        <v>0</v>
-      </c>
-      <c r="J161" s="4">
-        <v>1</v>
-      </c>
-      <c r="K161" s="4">
-        <v>0</v>
-      </c>
-      <c r="L161" s="4">
-        <v>0</v>
-      </c>
-      <c r="M161" s="4">
-        <v>0</v>
-      </c>
-      <c r="N161" s="4">
-        <v>0</v>
-      </c>
-      <c r="O161" s="4">
-        <v>0</v>
-      </c>
-      <c r="P161" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q161" s="4">
-        <v>0</v>
-      </c>
-      <c r="R161" s="4">
-        <v>0</v>
-      </c>
-      <c r="S161" s="4">
-        <v>0</v>
-      </c>
-      <c r="T161" s="4">
-        <v>0</v>
-      </c>
-      <c r="U161" s="4">
-        <v>0</v>
-      </c>
-      <c r="V161" s="4">
-        <v>0</v>
-      </c>
-      <c r="W161" s="4">
-        <v>1</v>
-      </c>
-      <c r="X161" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y161" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0</v>
+      </c>
+      <c r="I161" s="2">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2">
+        <v>1</v>
+      </c>
+      <c r="K161" s="2">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2">
+        <v>0</v>
+      </c>
+      <c r="M161" s="2">
+        <v>0</v>
+      </c>
+      <c r="N161" s="2">
+        <v>0</v>
+      </c>
+      <c r="O161" s="2">
+        <v>0</v>
+      </c>
+      <c r="P161" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="2">
+        <v>0</v>
+      </c>
+      <c r="R161" s="2">
+        <v>0</v>
+      </c>
+      <c r="S161" s="2">
+        <v>0</v>
+      </c>
+      <c r="T161" s="2">
+        <v>0</v>
+      </c>
+      <c r="U161" s="2">
+        <v>0</v>
+      </c>
+      <c r="V161" s="2">
+        <v>0</v>
+      </c>
+      <c r="W161" s="2">
+        <v>1</v>
+      </c>
+      <c r="X161" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y161" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>306</v>
       </c>
@@ -13570,68 +14056,71 @@
       <c r="E162" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="F162" s="4">
+      <c r="F162" s="2">
         <v>4.7750000000000004</v>
       </c>
-      <c r="G162" s="4">
-        <v>1</v>
-      </c>
-      <c r="H162" s="4">
-        <v>0</v>
-      </c>
-      <c r="I162" s="4">
-        <v>0</v>
-      </c>
-      <c r="J162" s="4">
-        <v>1</v>
-      </c>
-      <c r="K162" s="4">
-        <v>0</v>
-      </c>
-      <c r="L162" s="4">
-        <v>0</v>
-      </c>
-      <c r="M162" s="4">
-        <v>0</v>
-      </c>
-      <c r="N162" s="4">
-        <v>0</v>
-      </c>
-      <c r="O162" s="4">
-        <v>0</v>
-      </c>
-      <c r="P162" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q162" s="4">
-        <v>0</v>
-      </c>
-      <c r="R162" s="4">
-        <v>1</v>
-      </c>
-      <c r="S162" s="4">
-        <v>0</v>
-      </c>
-      <c r="T162" s="4">
-        <v>0</v>
-      </c>
-      <c r="U162" s="4">
-        <v>0</v>
-      </c>
-      <c r="V162" s="4">
-        <v>0</v>
-      </c>
-      <c r="W162" s="4">
-        <v>1</v>
-      </c>
-      <c r="X162" s="4">
+      <c r="G162" s="2">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0</v>
+      </c>
+      <c r="I162" s="2">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2">
+        <v>1</v>
+      </c>
+      <c r="K162" s="2">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2">
+        <v>0</v>
+      </c>
+      <c r="M162" s="2">
+        <v>0</v>
+      </c>
+      <c r="N162" s="2">
+        <v>0</v>
+      </c>
+      <c r="O162" s="2">
+        <v>0</v>
+      </c>
+      <c r="P162" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="2">
+        <v>0</v>
+      </c>
+      <c r="R162" s="2">
+        <v>1</v>
+      </c>
+      <c r="S162" s="2">
+        <v>0</v>
+      </c>
+      <c r="T162" s="2">
+        <v>0</v>
+      </c>
+      <c r="U162" s="2">
+        <v>0</v>
+      </c>
+      <c r="V162" s="2">
+        <v>0</v>
+      </c>
+      <c r="W162" s="2">
+        <v>1</v>
+      </c>
+      <c r="X162" s="2">
         <v>2</v>
       </c>
-      <c r="Y162" s="4">
+      <c r="Y162" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>154</v>
       </c>
@@ -13641,7 +14130,7 @@
       <c r="D163" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="F163" s="4">
+      <c r="F163" s="2">
         <v>4.3302750000000003</v>
       </c>
       <c r="G163" s="2">
@@ -13701,8 +14190,11 @@
       <c r="Y163" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>155</v>
       </c>
@@ -13769,8 +14261,11 @@
       <c r="Y164" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>156</v>
       </c>
@@ -13837,8 +14332,11 @@
       <c r="Y165" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>157</v>
       </c>
@@ -13905,8 +14403,11 @@
       <c r="Y166" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>158</v>
       </c>
@@ -13973,8 +14474,11 @@
       <c r="Y167" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>159</v>
       </c>
@@ -14041,8 +14545,11 @@
       <c r="Y168" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>160</v>
       </c>
@@ -14109,82 +14616,88 @@
       <c r="Y169" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>308</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D170" s="4" t="s">
+      <c r="D170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E170" s="4" t="s">
+      <c r="E170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F170" s="4" t="s">
+      <c r="F170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="G170" s="4" t="s">
+      <c r="G170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="H170" s="4" t="s">
+      <c r="H170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I170" s="4" t="s">
+      <c r="I170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="J170" s="4" t="s">
+      <c r="J170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K170" s="4" t="s">
+      <c r="K170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="L170" s="4" t="s">
+      <c r="L170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="M170" s="4" t="s">
+      <c r="M170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="N170" s="4" t="s">
+      <c r="N170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="O170" s="4" t="s">
+      <c r="O170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="P170" s="4" t="s">
+      <c r="P170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="Q170" s="4" t="s">
+      <c r="Q170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="R170" s="4" t="s">
+      <c r="R170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="S170" s="4" t="s">
+      <c r="S170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="T170" s="4" t="s">
+      <c r="T170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="U170" s="4" t="s">
+      <c r="U170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="V170" s="4" t="s">
+      <c r="V170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W170" s="4" t="s">
+      <c r="W170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="X170" s="4" t="s">
+      <c r="X170" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="Y170" s="4" t="s">
+      <c r="Y170" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>161</v>
       </c>
@@ -14251,8 +14764,11 @@
       <c r="Y171" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>162</v>
       </c>
@@ -14319,8 +14835,11 @@
       <c r="Y172" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>163</v>
       </c>
@@ -14387,8 +14906,11 @@
       <c r="Y173" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>164</v>
       </c>
@@ -14455,8 +14977,11 @@
       <c r="Y174" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>165</v>
       </c>
@@ -14523,8 +15048,11 @@
       <c r="Y175" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>166</v>
       </c>
@@ -14591,8 +15119,11 @@
       <c r="Y176" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>167</v>
       </c>
@@ -14659,8 +15190,11 @@
       <c r="Y177" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>168</v>
       </c>
@@ -14727,8 +15261,11 @@
       <c r="Y178" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>169</v>
       </c>
@@ -14795,8 +15332,11 @@
       <c r="Y179" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>335</v>
       </c>
@@ -14809,68 +15349,71 @@
       <c r="E180" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F180" s="4">
+      <c r="F180" s="2">
         <v>4.2083149999999998</v>
       </c>
-      <c r="G180" s="4">
-        <v>1</v>
-      </c>
-      <c r="H180" s="4">
-        <v>0</v>
-      </c>
-      <c r="I180" s="4">
-        <v>0</v>
-      </c>
-      <c r="J180" s="4">
-        <v>1</v>
-      </c>
-      <c r="K180" s="4">
-        <v>0</v>
-      </c>
-      <c r="L180" s="4">
-        <v>0</v>
-      </c>
-      <c r="M180" s="4">
-        <v>1</v>
-      </c>
-      <c r="N180" s="4">
-        <v>0</v>
-      </c>
-      <c r="O180" s="4">
-        <v>0</v>
-      </c>
-      <c r="P180" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q180" s="4">
-        <v>0</v>
-      </c>
-      <c r="R180" s="4">
-        <v>1</v>
-      </c>
-      <c r="S180" s="4">
-        <v>0</v>
-      </c>
-      <c r="T180" s="4">
-        <v>0</v>
-      </c>
-      <c r="U180" s="4">
-        <v>0</v>
-      </c>
-      <c r="V180" s="4">
-        <v>0</v>
-      </c>
-      <c r="W180" s="4">
-        <v>1</v>
-      </c>
-      <c r="X180" s="4">
+      <c r="G180" s="2">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0</v>
+      </c>
+      <c r="I180" s="2">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2">
+        <v>1</v>
+      </c>
+      <c r="K180" s="2">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2">
+        <v>0</v>
+      </c>
+      <c r="M180" s="2">
+        <v>1</v>
+      </c>
+      <c r="N180" s="2">
+        <v>0</v>
+      </c>
+      <c r="O180" s="2">
+        <v>0</v>
+      </c>
+      <c r="P180" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="2">
+        <v>0</v>
+      </c>
+      <c r="R180" s="2">
+        <v>1</v>
+      </c>
+      <c r="S180" s="2">
+        <v>0</v>
+      </c>
+      <c r="T180" s="2">
+        <v>0</v>
+      </c>
+      <c r="U180" s="2">
+        <v>0</v>
+      </c>
+      <c r="V180" s="2">
+        <v>0</v>
+      </c>
+      <c r="W180" s="2">
+        <v>1</v>
+      </c>
+      <c r="X180" s="2">
         <v>3</v>
       </c>
-      <c r="Y180" s="4">
+      <c r="Y180" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="181" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>336</v>
       </c>
@@ -14883,68 +15426,71 @@
       <c r="E181" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F181" s="4">
+      <c r="F181" s="2">
         <v>4.0999850000000002</v>
       </c>
-      <c r="G181" s="4">
-        <v>0</v>
-      </c>
-      <c r="H181" s="4">
-        <v>0</v>
-      </c>
-      <c r="I181" s="4">
-        <v>0</v>
-      </c>
-      <c r="J181" s="4">
-        <v>1</v>
-      </c>
-      <c r="K181" s="4">
-        <v>1</v>
-      </c>
-      <c r="L181" s="4">
-        <v>0</v>
-      </c>
-      <c r="M181" s="4">
-        <v>0</v>
-      </c>
-      <c r="N181" s="4">
-        <v>0</v>
-      </c>
-      <c r="O181" s="4">
-        <v>0</v>
-      </c>
-      <c r="P181" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q181" s="4">
-        <v>0</v>
-      </c>
-      <c r="R181" s="4">
-        <v>1</v>
-      </c>
-      <c r="S181" s="4">
-        <v>0</v>
-      </c>
-      <c r="T181" s="4">
-        <v>0</v>
-      </c>
-      <c r="U181" s="4">
-        <v>0</v>
-      </c>
-      <c r="V181" s="4">
-        <v>0</v>
-      </c>
-      <c r="W181" s="4">
-        <v>0</v>
-      </c>
-      <c r="X181" s="4">
+      <c r="G181" s="2">
+        <v>0</v>
+      </c>
+      <c r="H181" s="2">
+        <v>0</v>
+      </c>
+      <c r="I181" s="2">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2">
+        <v>1</v>
+      </c>
+      <c r="K181" s="2">
+        <v>1</v>
+      </c>
+      <c r="L181" s="2">
+        <v>0</v>
+      </c>
+      <c r="M181" s="2">
+        <v>0</v>
+      </c>
+      <c r="N181" s="2">
+        <v>0</v>
+      </c>
+      <c r="O181" s="2">
+        <v>0</v>
+      </c>
+      <c r="P181" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="2">
+        <v>0</v>
+      </c>
+      <c r="R181" s="2">
+        <v>1</v>
+      </c>
+      <c r="S181" s="2">
+        <v>0</v>
+      </c>
+      <c r="T181" s="2">
+        <v>0</v>
+      </c>
+      <c r="U181" s="2">
+        <v>0</v>
+      </c>
+      <c r="V181" s="2">
+        <v>0</v>
+      </c>
+      <c r="W181" s="2">
+        <v>0</v>
+      </c>
+      <c r="X181" s="2">
         <v>2</v>
       </c>
-      <c r="Y181" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y181" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>170</v>
       </c>
@@ -15011,8 +15557,11 @@
       <c r="Y182" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>171</v>
       </c>
@@ -15079,8 +15628,11 @@
       <c r="Y183" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>172</v>
       </c>
@@ -15147,8 +15699,11 @@
       <c r="Y184" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>173</v>
       </c>
@@ -15215,8 +15770,11 @@
       <c r="Y185" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>174</v>
       </c>
@@ -15283,8 +15841,11 @@
       <c r="Y186" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>175</v>
       </c>
@@ -15351,8 +15912,11 @@
       <c r="Y187" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>176</v>
       </c>
@@ -15419,8 +15983,11 @@
       <c r="Y188" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>177</v>
       </c>
@@ -15487,8 +16054,11 @@
       <c r="Y189" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>178</v>
       </c>
@@ -15555,8 +16125,11 @@
       <c r="Y190" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>179</v>
       </c>
@@ -15623,8 +16196,11 @@
       <c r="Y191" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>180</v>
       </c>
@@ -15691,8 +16267,11 @@
       <c r="Y192" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>181</v>
       </c>
@@ -15759,15 +16338,17 @@
       <c r="Y193" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C194" s="4"/>
       <c r="D194" s="1" t="s">
         <v>337</v>
       </c>
@@ -15834,8 +16415,11 @@
       <c r="Y194" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>183</v>
       </c>
@@ -15902,8 +16486,11 @@
       <c r="Y195" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>184</v>
       </c>
@@ -15970,8 +16557,11 @@
       <c r="Y196" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>185</v>
       </c>
@@ -16038,8 +16628,11 @@
       <c r="Y197" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>186</v>
       </c>
@@ -16106,8 +16699,11 @@
       <c r="Y198" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>187</v>
       </c>
@@ -16174,8 +16770,11 @@
       <c r="Y199" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>188</v>
       </c>
@@ -16242,8 +16841,11 @@
       <c r="Y200" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>189</v>
       </c>
@@ -16310,8 +16912,11 @@
       <c r="Y201" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>190</v>
       </c>
@@ -16378,8 +16983,11 @@
       <c r="Y202" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>191</v>
       </c>
@@ -16446,8 +17054,11 @@
       <c r="Y203" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>192</v>
       </c>
@@ -16514,8 +17125,11 @@
       <c r="Y204" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>193</v>
       </c>
@@ -16582,8 +17196,11 @@
       <c r="Y205" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>194</v>
       </c>
@@ -16650,8 +17267,11 @@
       <c r="Y206" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>195</v>
       </c>
@@ -16718,8 +17338,11 @@
       <c r="Y207" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>196</v>
       </c>
@@ -16786,8 +17409,11 @@
       <c r="Y208" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>197</v>
       </c>
@@ -16854,8 +17480,11 @@
       <c r="Y209" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>198</v>
       </c>
@@ -16922,8 +17551,11 @@
       <c r="Y210" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>199</v>
       </c>
@@ -16990,8 +17622,11 @@
       <c r="Y211" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z211" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>200</v>
       </c>
@@ -17058,8 +17693,11 @@
       <c r="Y212" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>201</v>
       </c>
@@ -17126,8 +17764,11 @@
       <c r="Y213" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>202</v>
       </c>
@@ -17194,8 +17835,11 @@
       <c r="Y214" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>203</v>
       </c>
@@ -17262,8 +17906,11 @@
       <c r="Y215" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>204</v>
       </c>
@@ -17330,8 +17977,11 @@
       <c r="Y216" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>205</v>
       </c>
@@ -17398,8 +18048,11 @@
       <c r="Y217" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>206</v>
       </c>
@@ -17466,8 +18119,11 @@
       <c r="Y218" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>207</v>
       </c>
@@ -17534,8 +18190,11 @@
       <c r="Y219" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>208</v>
       </c>
@@ -17602,8 +18261,11 @@
       <c r="Y220" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>318</v>
       </c>
@@ -17616,68 +18278,71 @@
       <c r="E221" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F221" s="4">
+      <c r="F221" s="2">
         <v>4.9833350000000003</v>
       </c>
-      <c r="G221" s="4">
-        <v>1</v>
-      </c>
-      <c r="H221" s="4">
-        <v>0</v>
-      </c>
-      <c r="I221" s="4">
-        <v>1</v>
-      </c>
-      <c r="J221" s="4">
-        <v>0</v>
-      </c>
-      <c r="K221" s="4">
-        <v>1</v>
-      </c>
-      <c r="L221" s="4">
-        <v>0</v>
-      </c>
-      <c r="M221" s="4">
-        <v>0</v>
-      </c>
-      <c r="N221" s="4">
-        <v>1</v>
-      </c>
-      <c r="O221" s="4">
-        <v>0</v>
-      </c>
-      <c r="P221" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q221" s="4">
-        <v>0</v>
-      </c>
-      <c r="R221" s="4">
-        <v>0</v>
-      </c>
-      <c r="S221" s="4">
-        <v>0</v>
-      </c>
-      <c r="T221" s="4">
-        <v>0</v>
-      </c>
-      <c r="U221" s="4">
-        <v>0</v>
-      </c>
-      <c r="V221" s="4">
-        <v>0</v>
-      </c>
-      <c r="W221" s="4">
-        <v>0</v>
-      </c>
-      <c r="X221" s="4">
+      <c r="G221" s="2">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2">
+        <v>0</v>
+      </c>
+      <c r="I221" s="2">
+        <v>1</v>
+      </c>
+      <c r="J221" s="2">
+        <v>0</v>
+      </c>
+      <c r="K221" s="2">
+        <v>1</v>
+      </c>
+      <c r="L221" s="2">
+        <v>0</v>
+      </c>
+      <c r="M221" s="2">
+        <v>0</v>
+      </c>
+      <c r="N221" s="2">
+        <v>1</v>
+      </c>
+      <c r="O221" s="2">
+        <v>0</v>
+      </c>
+      <c r="P221" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q221" s="2">
+        <v>0</v>
+      </c>
+      <c r="R221" s="2">
+        <v>0</v>
+      </c>
+      <c r="S221" s="2">
+        <v>0</v>
+      </c>
+      <c r="T221" s="2">
+        <v>0</v>
+      </c>
+      <c r="U221" s="2">
+        <v>0</v>
+      </c>
+      <c r="V221" s="2">
+        <v>0</v>
+      </c>
+      <c r="W221" s="2">
+        <v>0</v>
+      </c>
+      <c r="X221" s="2">
         <v>4</v>
       </c>
-      <c r="Y221" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y221" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>209</v>
       </c>
@@ -17744,8 +18409,11 @@
       <c r="Y222" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>210</v>
       </c>
@@ -17812,8 +18480,11 @@
       <c r="Y223" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>211</v>
       </c>
@@ -17880,8 +18551,11 @@
       <c r="Y224" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z224" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>212</v>
       </c>
@@ -17948,8 +18622,11 @@
       <c r="Y225" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z225" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>213</v>
       </c>
@@ -18016,8 +18693,11 @@
       <c r="Y226" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>214</v>
       </c>
@@ -18084,8 +18764,11 @@
       <c r="Y227" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>319</v>
       </c>
@@ -18098,68 +18781,71 @@
       <c r="E228" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F228" s="4">
+      <c r="F228" s="2">
         <v>3.2333150000000002</v>
       </c>
-      <c r="G228" s="4">
-        <v>1</v>
-      </c>
-      <c r="H228" s="4">
-        <v>0</v>
-      </c>
-      <c r="I228" s="4">
-        <v>0</v>
-      </c>
-      <c r="J228" s="4">
-        <v>0</v>
-      </c>
-      <c r="K228" s="4">
-        <v>0</v>
-      </c>
-      <c r="L228" s="4">
-        <v>1</v>
-      </c>
-      <c r="M228" s="4">
-        <v>0</v>
-      </c>
-      <c r="N228" s="4">
-        <v>0</v>
-      </c>
-      <c r="O228" s="4">
-        <v>0</v>
-      </c>
-      <c r="P228" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q228" s="4">
-        <v>0</v>
-      </c>
-      <c r="R228" s="4">
-        <v>0</v>
-      </c>
-      <c r="S228" s="4">
-        <v>0</v>
-      </c>
-      <c r="T228" s="4">
-        <v>0</v>
-      </c>
-      <c r="U228" s="4">
-        <v>0</v>
-      </c>
-      <c r="V228" s="4">
-        <v>0</v>
-      </c>
-      <c r="W228" s="4">
-        <v>0</v>
-      </c>
-      <c r="X228" s="4">
+      <c r="G228" s="2">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2">
+        <v>0</v>
+      </c>
+      <c r="I228" s="2">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2">
+        <v>0</v>
+      </c>
+      <c r="K228" s="2">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2">
+        <v>1</v>
+      </c>
+      <c r="M228" s="2">
+        <v>0</v>
+      </c>
+      <c r="N228" s="2">
+        <v>0</v>
+      </c>
+      <c r="O228" s="2">
+        <v>0</v>
+      </c>
+      <c r="P228" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q228" s="2">
+        <v>0</v>
+      </c>
+      <c r="R228" s="2">
+        <v>0</v>
+      </c>
+      <c r="S228" s="2">
+        <v>0</v>
+      </c>
+      <c r="T228" s="2">
+        <v>0</v>
+      </c>
+      <c r="U228" s="2">
+        <v>0</v>
+      </c>
+      <c r="V228" s="2">
+        <v>0</v>
+      </c>
+      <c r="W228" s="2">
+        <v>0</v>
+      </c>
+      <c r="X228" s="2">
         <v>2</v>
       </c>
-      <c r="Y228" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y228" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>300</v>
       </c>
@@ -18172,68 +18858,71 @@
       <c r="E229" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F229" s="4">
+      <c r="F229" s="2">
         <v>3.1166649999999998</v>
       </c>
-      <c r="G229" s="4">
-        <v>1</v>
-      </c>
-      <c r="H229" s="4">
-        <v>0</v>
-      </c>
-      <c r="I229" s="4">
-        <v>0</v>
-      </c>
-      <c r="J229" s="4">
-        <v>0</v>
-      </c>
-      <c r="K229" s="4">
-        <v>1</v>
-      </c>
-      <c r="L229" s="4">
-        <v>1</v>
-      </c>
-      <c r="M229" s="4">
-        <v>1</v>
-      </c>
-      <c r="N229" s="4">
-        <v>0</v>
-      </c>
-      <c r="O229" s="4">
-        <v>0</v>
-      </c>
-      <c r="P229" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q229" s="4">
-        <v>0</v>
-      </c>
-      <c r="R229" s="4">
-        <v>0</v>
-      </c>
-      <c r="S229" s="4">
-        <v>0</v>
-      </c>
-      <c r="T229" s="4">
-        <v>0</v>
-      </c>
-      <c r="U229" s="4">
-        <v>0</v>
-      </c>
-      <c r="V229" s="4">
-        <v>0</v>
-      </c>
-      <c r="W229" s="4">
-        <v>1</v>
-      </c>
-      <c r="X229" s="4">
+      <c r="G229" s="2">
+        <v>1</v>
+      </c>
+      <c r="H229" s="2">
+        <v>0</v>
+      </c>
+      <c r="I229" s="2">
+        <v>0</v>
+      </c>
+      <c r="J229" s="2">
+        <v>0</v>
+      </c>
+      <c r="K229" s="2">
+        <v>1</v>
+      </c>
+      <c r="L229" s="2">
+        <v>1</v>
+      </c>
+      <c r="M229" s="2">
+        <v>1</v>
+      </c>
+      <c r="N229" s="2">
+        <v>0</v>
+      </c>
+      <c r="O229" s="2">
+        <v>0</v>
+      </c>
+      <c r="P229" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q229" s="2">
+        <v>0</v>
+      </c>
+      <c r="R229" s="2">
+        <v>0</v>
+      </c>
+      <c r="S229" s="2">
+        <v>0</v>
+      </c>
+      <c r="T229" s="2">
+        <v>0</v>
+      </c>
+      <c r="U229" s="2">
+        <v>0</v>
+      </c>
+      <c r="V229" s="2">
+        <v>0</v>
+      </c>
+      <c r="W229" s="2">
+        <v>1</v>
+      </c>
+      <c r="X229" s="2">
         <v>4</v>
       </c>
-      <c r="Y229" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y229" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z229" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>215</v>
       </c>
@@ -18300,8 +18989,11 @@
       <c r="Y230" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>216</v>
       </c>
@@ -18368,8 +19060,11 @@
       <c r="Y231" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>217</v>
       </c>
@@ -18436,8 +19131,11 @@
       <c r="Y232" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>218</v>
       </c>
@@ -18504,8 +19202,11 @@
       <c r="Y233" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>219</v>
       </c>
@@ -18572,8 +19273,11 @@
       <c r="Y234" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>220</v>
       </c>
@@ -18640,8 +19344,11 @@
       <c r="Y235" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>221</v>
       </c>
@@ -18708,8 +19415,11 @@
       <c r="Y236" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z236" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>222</v>
       </c>
@@ -18776,8 +19486,11 @@
       <c r="Y237" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z237" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>223</v>
       </c>
@@ -18847,8 +19560,11 @@
       <c r="Y238" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z238" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>224</v>
       </c>
@@ -18915,8 +19631,11 @@
       <c r="Y239" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>225</v>
       </c>
@@ -18986,8 +19705,11 @@
       <c r="Y240" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>353</v>
       </c>
@@ -19000,68 +19722,71 @@
       <c r="E241" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F241" s="4">
+      <c r="F241" s="2">
         <v>2.8</v>
       </c>
-      <c r="G241" s="4">
-        <v>1</v>
-      </c>
-      <c r="H241" s="4">
-        <v>0</v>
-      </c>
-      <c r="I241" s="4">
-        <v>1</v>
-      </c>
-      <c r="J241" s="4">
-        <v>1</v>
-      </c>
-      <c r="K241" s="4">
-        <v>0</v>
-      </c>
-      <c r="L241" s="4">
-        <v>0</v>
-      </c>
-      <c r="M241" s="4">
-        <v>0</v>
-      </c>
-      <c r="N241" s="4">
-        <v>0</v>
-      </c>
-      <c r="O241" s="4">
-        <v>1</v>
-      </c>
-      <c r="P241" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q241" s="4">
-        <v>0</v>
-      </c>
-      <c r="R241" s="4">
-        <v>0</v>
-      </c>
-      <c r="S241" s="4">
-        <v>0</v>
-      </c>
-      <c r="T241" s="4">
-        <v>0</v>
-      </c>
-      <c r="U241" s="4">
-        <v>0</v>
-      </c>
-      <c r="V241" s="4">
-        <v>0</v>
-      </c>
-      <c r="W241" s="4">
-        <v>1</v>
-      </c>
-      <c r="X241" s="4">
+      <c r="G241" s="2">
+        <v>1</v>
+      </c>
+      <c r="H241" s="2">
+        <v>0</v>
+      </c>
+      <c r="I241" s="2">
+        <v>1</v>
+      </c>
+      <c r="J241" s="2">
+        <v>1</v>
+      </c>
+      <c r="K241" s="2">
+        <v>0</v>
+      </c>
+      <c r="L241" s="2">
+        <v>0</v>
+      </c>
+      <c r="M241" s="2">
+        <v>0</v>
+      </c>
+      <c r="N241" s="2">
+        <v>0</v>
+      </c>
+      <c r="O241" s="2">
+        <v>1</v>
+      </c>
+      <c r="P241" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q241" s="2">
+        <v>0</v>
+      </c>
+      <c r="R241" s="2">
+        <v>0</v>
+      </c>
+      <c r="S241" s="2">
+        <v>0</v>
+      </c>
+      <c r="T241" s="2">
+        <v>0</v>
+      </c>
+      <c r="U241" s="2">
+        <v>0</v>
+      </c>
+      <c r="V241" s="2">
+        <v>0</v>
+      </c>
+      <c r="W241" s="2">
+        <v>1</v>
+      </c>
+      <c r="X241" s="2">
         <v>4</v>
       </c>
-      <c r="Y241" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y241" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>226</v>
       </c>
@@ -19128,8 +19853,11 @@
       <c r="Y242" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>227</v>
       </c>
@@ -19199,8 +19927,11 @@
       <c r="Y243" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>307</v>
       </c>
@@ -19213,68 +19944,71 @@
       <c r="E244" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F244" s="4">
+      <c r="F244" s="2">
         <v>2.7749999999999999</v>
       </c>
-      <c r="G244" s="4">
-        <v>1</v>
-      </c>
-      <c r="H244" s="4">
-        <v>0</v>
-      </c>
-      <c r="I244" s="4">
-        <v>0</v>
-      </c>
-      <c r="J244" s="4">
-        <v>0</v>
-      </c>
-      <c r="K244" s="4">
-        <v>1</v>
-      </c>
-      <c r="L244" s="4">
-        <v>1</v>
-      </c>
-      <c r="M244" s="4">
-        <v>0</v>
-      </c>
-      <c r="N244" s="4">
-        <v>0</v>
-      </c>
-      <c r="O244" s="4">
-        <v>1</v>
-      </c>
-      <c r="P244" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q244" s="4">
-        <v>0</v>
-      </c>
-      <c r="R244" s="4">
-        <v>0</v>
-      </c>
-      <c r="S244" s="4">
-        <v>0</v>
-      </c>
-      <c r="T244" s="4">
-        <v>0</v>
-      </c>
-      <c r="U244" s="4">
-        <v>0</v>
-      </c>
-      <c r="V244" s="4">
-        <v>0</v>
-      </c>
-      <c r="W244" s="4">
-        <v>1</v>
-      </c>
-      <c r="X244" s="4">
+      <c r="G244" s="2">
+        <v>1</v>
+      </c>
+      <c r="H244" s="2">
+        <v>0</v>
+      </c>
+      <c r="I244" s="2">
+        <v>0</v>
+      </c>
+      <c r="J244" s="2">
+        <v>0</v>
+      </c>
+      <c r="K244" s="2">
+        <v>1</v>
+      </c>
+      <c r="L244" s="2">
+        <v>1</v>
+      </c>
+      <c r="M244" s="2">
+        <v>0</v>
+      </c>
+      <c r="N244" s="2">
+        <v>0</v>
+      </c>
+      <c r="O244" s="2">
+        <v>1</v>
+      </c>
+      <c r="P244" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q244" s="2">
+        <v>0</v>
+      </c>
+      <c r="R244" s="2">
+        <v>0</v>
+      </c>
+      <c r="S244" s="2">
+        <v>0</v>
+      </c>
+      <c r="T244" s="2">
+        <v>0</v>
+      </c>
+      <c r="U244" s="2">
+        <v>0</v>
+      </c>
+      <c r="V244" s="2">
+        <v>0</v>
+      </c>
+      <c r="W244" s="2">
+        <v>1</v>
+      </c>
+      <c r="X244" s="2">
         <v>4</v>
       </c>
-      <c r="Y244" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y244" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>228</v>
       </c>
@@ -19344,8 +20078,11 @@
       <c r="Y245" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>229</v>
       </c>
@@ -19412,8 +20149,11 @@
       <c r="Y246" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>230</v>
       </c>
@@ -19480,8 +20220,11 @@
       <c r="Y247" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>317</v>
       </c>
@@ -19494,68 +20237,71 @@
       <c r="E248" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F248" s="4">
+      <c r="F248" s="2">
         <v>3.1</v>
       </c>
-      <c r="G248" s="4">
-        <v>1</v>
-      </c>
-      <c r="H248" s="4">
-        <v>0</v>
-      </c>
-      <c r="I248" s="4">
-        <v>0</v>
-      </c>
-      <c r="J248" s="4">
-        <v>1</v>
-      </c>
-      <c r="K248" s="4">
-        <v>0</v>
-      </c>
-      <c r="L248" s="4">
-        <v>0</v>
-      </c>
-      <c r="M248" s="4">
-        <v>1</v>
-      </c>
-      <c r="N248" s="4">
-        <v>0</v>
-      </c>
-      <c r="O248" s="4">
-        <v>0</v>
-      </c>
-      <c r="P248" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q248" s="4">
-        <v>0</v>
-      </c>
-      <c r="R248" s="4">
-        <v>0</v>
-      </c>
-      <c r="S248" s="4">
-        <v>0</v>
-      </c>
-      <c r="T248" s="4">
-        <v>0</v>
-      </c>
-      <c r="U248" s="4">
-        <v>0</v>
-      </c>
-      <c r="V248" s="4">
-        <v>1</v>
-      </c>
-      <c r="W248" s="4">
-        <v>1</v>
-      </c>
-      <c r="X248" s="4">
+      <c r="G248" s="2">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2">
+        <v>0</v>
+      </c>
+      <c r="I248" s="2">
+        <v>0</v>
+      </c>
+      <c r="J248" s="2">
+        <v>1</v>
+      </c>
+      <c r="K248" s="2">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2">
+        <v>0</v>
+      </c>
+      <c r="M248" s="2">
+        <v>1</v>
+      </c>
+      <c r="N248" s="2">
+        <v>0</v>
+      </c>
+      <c r="O248" s="2">
+        <v>0</v>
+      </c>
+      <c r="P248" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q248" s="2">
+        <v>0</v>
+      </c>
+      <c r="R248" s="2">
+        <v>0</v>
+      </c>
+      <c r="S248" s="2">
+        <v>0</v>
+      </c>
+      <c r="T248" s="2">
+        <v>0</v>
+      </c>
+      <c r="U248" s="2">
+        <v>0</v>
+      </c>
+      <c r="V248" s="2">
+        <v>1</v>
+      </c>
+      <c r="W248" s="2">
+        <v>1</v>
+      </c>
+      <c r="X248" s="2">
         <v>3</v>
       </c>
-      <c r="Y248" s="4">
+      <c r="Y248" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>231</v>
       </c>
@@ -19622,8 +20368,11 @@
       <c r="Y249" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>232</v>
       </c>
@@ -19690,8 +20439,11 @@
       <c r="Y250" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>233</v>
       </c>
@@ -19758,8 +20510,11 @@
       <c r="Y251" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>234</v>
       </c>
@@ -19826,8 +20581,11 @@
       <c r="Y252" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>235</v>
       </c>
@@ -19894,8 +20652,11 @@
       <c r="Y253" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>236</v>
       </c>
@@ -19962,8 +20723,11 @@
       <c r="Y254" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>237</v>
       </c>
@@ -20030,8 +20794,11 @@
       <c r="Y255" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>238</v>
       </c>
@@ -20098,8 +20865,11 @@
       <c r="Y256" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>239</v>
       </c>
@@ -20166,8 +20936,11 @@
       <c r="Y257" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>240</v>
       </c>
@@ -20234,8 +21007,11 @@
       <c r="Y258" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z258" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>241</v>
       </c>
@@ -20302,8 +21078,11 @@
       <c r="Y259" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>242</v>
       </c>
@@ -20370,8 +21149,11 @@
       <c r="Y260" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>243</v>
       </c>
@@ -20438,8 +21220,11 @@
       <c r="Y261" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z261" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>244</v>
       </c>
@@ -20506,8 +21291,11 @@
       <c r="Y262" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>245</v>
       </c>
@@ -20574,8 +21362,11 @@
       <c r="Y263" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>246</v>
       </c>
@@ -20642,8 +21433,11 @@
       <c r="Y264" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z264" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>247</v>
       </c>
@@ -20710,8 +21504,11 @@
       <c r="Y265" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z265" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>248</v>
       </c>
@@ -20778,8 +21575,11 @@
       <c r="Y266" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>249</v>
       </c>
@@ -20846,8 +21646,11 @@
       <c r="Y267" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>250</v>
       </c>
@@ -20914,8 +21717,11 @@
       <c r="Y268" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z268" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>251</v>
       </c>
@@ -20982,8 +21788,11 @@
       <c r="Y269" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>252</v>
       </c>
@@ -21050,8 +21859,11 @@
       <c r="Y270" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>253</v>
       </c>
@@ -21118,8 +21930,11 @@
       <c r="Y271" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>254</v>
       </c>
@@ -21186,8 +22001,11 @@
       <c r="Y272" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>255</v>
       </c>
@@ -21254,8 +22072,11 @@
       <c r="Y273" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z273" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>256</v>
       </c>
@@ -21322,8 +22143,11 @@
       <c r="Y274" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>257</v>
       </c>
@@ -21390,8 +22214,11 @@
       <c r="Y275" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>258</v>
       </c>
@@ -21458,8 +22285,11 @@
       <c r="Y276" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>259</v>
       </c>
@@ -21526,8 +22356,11 @@
       <c r="Y277" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>260</v>
       </c>
@@ -21594,8 +22427,11 @@
       <c r="Y278" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>312</v>
       </c>
@@ -21608,68 +22444,71 @@
       <c r="E279" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F279" s="4">
+      <c r="F279" s="2">
         <v>2.9750000000000001</v>
       </c>
-      <c r="G279" s="4">
-        <v>1</v>
-      </c>
-      <c r="H279" s="4">
-        <v>0</v>
-      </c>
-      <c r="I279" s="4">
-        <v>0</v>
-      </c>
-      <c r="J279" s="4">
-        <v>1</v>
-      </c>
-      <c r="K279" s="4">
-        <v>0</v>
-      </c>
-      <c r="L279" s="4">
-        <v>1</v>
-      </c>
-      <c r="M279" s="4">
-        <v>0</v>
-      </c>
-      <c r="N279" s="4">
-        <v>0</v>
-      </c>
-      <c r="O279" s="4">
-        <v>0</v>
-      </c>
-      <c r="P279" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q279" s="4">
-        <v>0</v>
-      </c>
-      <c r="R279" s="4">
-        <v>0</v>
-      </c>
-      <c r="S279" s="4">
-        <v>0</v>
-      </c>
-      <c r="T279" s="4">
-        <v>0</v>
-      </c>
-      <c r="U279" s="4">
-        <v>0</v>
-      </c>
-      <c r="V279" s="4">
-        <v>1</v>
-      </c>
-      <c r="W279" s="4">
-        <v>1</v>
-      </c>
-      <c r="X279" s="4">
+      <c r="G279" s="2">
+        <v>1</v>
+      </c>
+      <c r="H279" s="2">
+        <v>0</v>
+      </c>
+      <c r="I279" s="2">
+        <v>0</v>
+      </c>
+      <c r="J279" s="2">
+        <v>1</v>
+      </c>
+      <c r="K279" s="2">
+        <v>0</v>
+      </c>
+      <c r="L279" s="2">
+        <v>1</v>
+      </c>
+      <c r="M279" s="2">
+        <v>0</v>
+      </c>
+      <c r="N279" s="2">
+        <v>0</v>
+      </c>
+      <c r="O279" s="2">
+        <v>0</v>
+      </c>
+      <c r="P279" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q279" s="2">
+        <v>0</v>
+      </c>
+      <c r="R279" s="2">
+        <v>0</v>
+      </c>
+      <c r="S279" s="2">
+        <v>0</v>
+      </c>
+      <c r="T279" s="2">
+        <v>0</v>
+      </c>
+      <c r="U279" s="2">
+        <v>0</v>
+      </c>
+      <c r="V279" s="2">
+        <v>1</v>
+      </c>
+      <c r="W279" s="2">
+        <v>1</v>
+      </c>
+      <c r="X279" s="2">
         <v>3</v>
       </c>
-      <c r="Y279" s="4">
+      <c r="Y279" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>261</v>
       </c>
@@ -21736,8 +22575,11 @@
       <c r="Y280" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>262</v>
       </c>
@@ -21804,8 +22646,11 @@
       <c r="Y281" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>263</v>
       </c>
@@ -21872,8 +22717,11 @@
       <c r="Y282" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>264</v>
       </c>
@@ -21940,8 +22788,11 @@
       <c r="Y283" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>265</v>
       </c>
@@ -22008,8 +22859,11 @@
       <c r="Y284" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>266</v>
       </c>
@@ -22076,8 +22930,11 @@
       <c r="Y285" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="286" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>339</v>
       </c>
@@ -22087,68 +22944,71 @@
       <c r="D286" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F286" s="4">
+      <c r="F286" s="2">
         <v>2.9</v>
       </c>
-      <c r="G286" s="4">
-        <v>1</v>
-      </c>
-      <c r="H286" s="4">
-        <v>1</v>
-      </c>
-      <c r="I286" s="4">
-        <v>1</v>
-      </c>
-      <c r="J286" s="4">
-        <v>1</v>
-      </c>
-      <c r="K286" s="4">
-        <v>0</v>
-      </c>
-      <c r="L286" s="4">
-        <v>1</v>
-      </c>
-      <c r="M286" s="4">
-        <v>0</v>
-      </c>
-      <c r="N286" s="4">
-        <v>0</v>
-      </c>
-      <c r="O286" s="4">
-        <v>1</v>
-      </c>
-      <c r="P286" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q286" s="4">
-        <v>0</v>
-      </c>
-      <c r="R286" s="4">
-        <v>0</v>
-      </c>
-      <c r="S286" s="4">
-        <v>0</v>
-      </c>
-      <c r="T286" s="4">
-        <v>0</v>
-      </c>
-      <c r="U286" s="4">
-        <v>1</v>
-      </c>
-      <c r="V286" s="4">
-        <v>0</v>
-      </c>
-      <c r="W286" s="4">
-        <v>1</v>
-      </c>
-      <c r="X286" s="4">
+      <c r="G286" s="2">
+        <v>1</v>
+      </c>
+      <c r="H286" s="2">
+        <v>1</v>
+      </c>
+      <c r="I286" s="2">
+        <v>1</v>
+      </c>
+      <c r="J286" s="2">
+        <v>1</v>
+      </c>
+      <c r="K286" s="2">
+        <v>0</v>
+      </c>
+      <c r="L286" s="2">
+        <v>1</v>
+      </c>
+      <c r="M286" s="2">
+        <v>0</v>
+      </c>
+      <c r="N286" s="2">
+        <v>0</v>
+      </c>
+      <c r="O286" s="2">
+        <v>1</v>
+      </c>
+      <c r="P286" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q286" s="2">
+        <v>0</v>
+      </c>
+      <c r="R286" s="2">
+        <v>0</v>
+      </c>
+      <c r="S286" s="2">
+        <v>0</v>
+      </c>
+      <c r="T286" s="2">
+        <v>0</v>
+      </c>
+      <c r="U286" s="2">
+        <v>1</v>
+      </c>
+      <c r="V286" s="2">
+        <v>0</v>
+      </c>
+      <c r="W286" s="2">
+        <v>1</v>
+      </c>
+      <c r="X286" s="2">
         <v>6</v>
       </c>
-      <c r="Y286" s="4">
+      <c r="Y286" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>267</v>
       </c>
@@ -22215,8 +23075,11 @@
       <c r="Y287" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>320</v>
       </c>
@@ -22229,68 +23092,71 @@
       <c r="E288" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F288" s="4">
+      <c r="F288" s="2">
         <v>2.7374999999999998</v>
       </c>
-      <c r="G288" s="4">
-        <v>1</v>
-      </c>
-      <c r="H288" s="4">
-        <v>1</v>
-      </c>
-      <c r="I288" s="4">
-        <v>1</v>
-      </c>
-      <c r="J288" s="4">
-        <v>1</v>
-      </c>
-      <c r="K288" s="4">
-        <v>1</v>
-      </c>
-      <c r="L288" s="4">
-        <v>1</v>
-      </c>
-      <c r="M288" s="4">
-        <v>1</v>
-      </c>
-      <c r="N288" s="4">
-        <v>0</v>
-      </c>
-      <c r="O288" s="4">
-        <v>1</v>
-      </c>
-      <c r="P288" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q288" s="4">
-        <v>0</v>
-      </c>
-      <c r="R288" s="4">
-        <v>0</v>
-      </c>
-      <c r="S288" s="4">
-        <v>0</v>
-      </c>
-      <c r="T288" s="4">
-        <v>0</v>
-      </c>
-      <c r="U288" s="4">
-        <v>1</v>
-      </c>
-      <c r="V288" s="4">
-        <v>1</v>
-      </c>
-      <c r="W288" s="4">
-        <v>1</v>
-      </c>
-      <c r="X288" s="4">
+      <c r="G288" s="2">
+        <v>1</v>
+      </c>
+      <c r="H288" s="2">
+        <v>1</v>
+      </c>
+      <c r="I288" s="2">
+        <v>1</v>
+      </c>
+      <c r="J288" s="2">
+        <v>1</v>
+      </c>
+      <c r="K288" s="2">
+        <v>1</v>
+      </c>
+      <c r="L288" s="2">
+        <v>1</v>
+      </c>
+      <c r="M288" s="2">
+        <v>1</v>
+      </c>
+      <c r="N288" s="2">
+        <v>0</v>
+      </c>
+      <c r="O288" s="2">
+        <v>1</v>
+      </c>
+      <c r="P288" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q288" s="2">
+        <v>0</v>
+      </c>
+      <c r="R288" s="2">
+        <v>0</v>
+      </c>
+      <c r="S288" s="2">
+        <v>0</v>
+      </c>
+      <c r="T288" s="2">
+        <v>0</v>
+      </c>
+      <c r="U288" s="2">
+        <v>1</v>
+      </c>
+      <c r="V288" s="2">
+        <v>1</v>
+      </c>
+      <c r="W288" s="2">
+        <v>1</v>
+      </c>
+      <c r="X288" s="2">
         <v>8</v>
       </c>
-      <c r="Y288" s="4">
+      <c r="Y288" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>301</v>
       </c>
@@ -22303,68 +23169,71 @@
       <c r="E289" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F289" s="4">
+      <c r="F289" s="2">
         <v>2.9071400000000001</v>
       </c>
-      <c r="G289" s="4">
-        <v>1</v>
-      </c>
-      <c r="H289" s="4">
-        <v>0</v>
-      </c>
-      <c r="I289" s="4">
-        <v>1</v>
-      </c>
-      <c r="J289" s="4">
-        <v>1</v>
-      </c>
-      <c r="K289" s="4">
-        <v>0</v>
-      </c>
-      <c r="L289" s="4">
-        <v>0</v>
-      </c>
-      <c r="M289" s="4">
-        <v>0</v>
-      </c>
-      <c r="N289" s="4">
-        <v>0</v>
-      </c>
-      <c r="O289" s="4">
-        <v>0</v>
-      </c>
-      <c r="P289" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q289" s="4">
-        <v>0</v>
-      </c>
-      <c r="R289" s="4">
-        <v>0</v>
-      </c>
-      <c r="S289" s="4">
-        <v>0</v>
-      </c>
-      <c r="T289" s="4">
-        <v>0</v>
-      </c>
-      <c r="U289" s="4">
-        <v>0</v>
-      </c>
-      <c r="V289" s="4">
-        <v>0</v>
-      </c>
-      <c r="W289" s="4">
-        <v>1</v>
-      </c>
-      <c r="X289" s="4">
+      <c r="G289" s="2">
+        <v>1</v>
+      </c>
+      <c r="H289" s="2">
+        <v>0</v>
+      </c>
+      <c r="I289" s="2">
+        <v>1</v>
+      </c>
+      <c r="J289" s="2">
+        <v>1</v>
+      </c>
+      <c r="K289" s="2">
+        <v>0</v>
+      </c>
+      <c r="L289" s="2">
+        <v>0</v>
+      </c>
+      <c r="M289" s="2">
+        <v>0</v>
+      </c>
+      <c r="N289" s="2">
+        <v>0</v>
+      </c>
+      <c r="O289" s="2">
+        <v>0</v>
+      </c>
+      <c r="P289" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q289" s="2">
+        <v>0</v>
+      </c>
+      <c r="R289" s="2">
+        <v>0</v>
+      </c>
+      <c r="S289" s="2">
+        <v>0</v>
+      </c>
+      <c r="T289" s="2">
+        <v>0</v>
+      </c>
+      <c r="U289" s="2">
+        <v>0</v>
+      </c>
+      <c r="V289" s="2">
+        <v>0</v>
+      </c>
+      <c r="W289" s="2">
+        <v>1</v>
+      </c>
+      <c r="X289" s="2">
         <v>3</v>
       </c>
-      <c r="Y289" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y289" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>268</v>
       </c>
@@ -22431,8 +23300,11 @@
       <c r="Y290" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>269</v>
       </c>
@@ -22499,8 +23371,11 @@
       <c r="Y291" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>270</v>
       </c>
@@ -22567,8 +23442,11 @@
       <c r="Y292" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z292" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>271</v>
       </c>
@@ -22635,8 +23513,11 @@
       <c r="Y293" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>272</v>
       </c>
@@ -22703,8 +23584,11 @@
       <c r="Y294" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>273</v>
       </c>
@@ -22771,8 +23655,11 @@
       <c r="Y295" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>274</v>
       </c>
@@ -22839,8 +23726,11 @@
       <c r="Y296" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>275</v>
       </c>
@@ -22907,8 +23797,11 @@
       <c r="Y297" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>276</v>
       </c>
@@ -22975,8 +23868,11 @@
       <c r="Y298" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>277</v>
       </c>
@@ -23043,8 +23939,11 @@
       <c r="Y299" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>278</v>
       </c>
@@ -23111,8 +24010,11 @@
       <c r="Y300" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>279</v>
       </c>
@@ -23179,8 +24081,11 @@
       <c r="Y301" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A302" s="1" t="s">
         <v>280</v>
       </c>
@@ -23247,8 +24152,11 @@
       <c r="Y302" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z302" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>281</v>
       </c>
@@ -23315,8 +24223,11 @@
       <c r="Y303" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>282</v>
       </c>
@@ -23383,8 +24294,11 @@
       <c r="Y304" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>283</v>
       </c>
@@ -23451,8 +24365,11 @@
       <c r="Y305" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="306" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A306" s="1" t="s">
         <v>340</v>
       </c>
@@ -23465,68 +24382,71 @@
       <c r="E306" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F306" s="4">
+      <c r="F306" s="2">
         <v>3.65</v>
       </c>
-      <c r="G306" s="4">
-        <v>0</v>
-      </c>
-      <c r="H306" s="4">
-        <v>0</v>
-      </c>
-      <c r="I306" s="4">
-        <v>0</v>
-      </c>
-      <c r="J306" s="4">
-        <v>1</v>
-      </c>
-      <c r="K306" s="4">
-        <v>0</v>
-      </c>
-      <c r="L306" s="4">
-        <v>0</v>
-      </c>
-      <c r="M306" s="4">
-        <v>0</v>
-      </c>
-      <c r="N306" s="4">
-        <v>0</v>
-      </c>
-      <c r="O306" s="4">
-        <v>0</v>
-      </c>
-      <c r="P306" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q306" s="4">
-        <v>0</v>
-      </c>
-      <c r="R306" s="4">
-        <v>0</v>
-      </c>
-      <c r="S306" s="4">
-        <v>0</v>
-      </c>
-      <c r="T306" s="4">
-        <v>0</v>
-      </c>
-      <c r="U306" s="4">
-        <v>0</v>
-      </c>
-      <c r="V306" s="4">
-        <v>1</v>
-      </c>
-      <c r="W306" s="4">
-        <v>1</v>
-      </c>
-      <c r="X306" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y306" s="4">
+      <c r="G306" s="2">
+        <v>0</v>
+      </c>
+      <c r="H306" s="2">
+        <v>0</v>
+      </c>
+      <c r="I306" s="2">
+        <v>0</v>
+      </c>
+      <c r="J306" s="2">
+        <v>1</v>
+      </c>
+      <c r="K306" s="2">
+        <v>0</v>
+      </c>
+      <c r="L306" s="2">
+        <v>0</v>
+      </c>
+      <c r="M306" s="2">
+        <v>0</v>
+      </c>
+      <c r="N306" s="2">
+        <v>0</v>
+      </c>
+      <c r="O306" s="2">
+        <v>0</v>
+      </c>
+      <c r="P306" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q306" s="2">
+        <v>0</v>
+      </c>
+      <c r="R306" s="2">
+        <v>0</v>
+      </c>
+      <c r="S306" s="2">
+        <v>0</v>
+      </c>
+      <c r="T306" s="2">
+        <v>0</v>
+      </c>
+      <c r="U306" s="2">
+        <v>0</v>
+      </c>
+      <c r="V306" s="2">
+        <v>1</v>
+      </c>
+      <c r="W306" s="2">
+        <v>1</v>
+      </c>
+      <c r="X306" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y306" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>284</v>
       </c>
@@ -23593,8 +24513,11 @@
       <c r="Y307" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>285</v>
       </c>
@@ -23661,8 +24584,11 @@
       <c r="Y308" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z308" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A309" s="1" t="s">
         <v>286</v>
       </c>
@@ -23729,8 +24655,11 @@
       <c r="Y309" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z309" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>287</v>
       </c>
@@ -23797,8 +24726,11 @@
       <c r="Y310" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>288</v>
       </c>
@@ -23865,8 +24797,11 @@
       <c r="Y311" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="312" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z311" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A312" s="1" t="s">
         <v>299</v>
       </c>
@@ -23879,68 +24814,71 @@
       <c r="E312" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F312" s="4">
+      <c r="F312" s="2">
         <v>4.6875</v>
       </c>
-      <c r="G312" s="4">
-        <v>0</v>
-      </c>
-      <c r="H312" s="4">
-        <v>0</v>
-      </c>
-      <c r="I312" s="4">
-        <v>0</v>
-      </c>
-      <c r="J312" s="4">
-        <v>1</v>
-      </c>
-      <c r="K312" s="4">
-        <v>0</v>
-      </c>
-      <c r="L312" s="4">
-        <v>1</v>
-      </c>
-      <c r="M312" s="4">
-        <v>0</v>
-      </c>
-      <c r="N312" s="4">
-        <v>0</v>
-      </c>
-      <c r="O312" s="4">
-        <v>1</v>
-      </c>
-      <c r="P312" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q312" s="4">
-        <v>0</v>
-      </c>
-      <c r="R312" s="4">
-        <v>1</v>
-      </c>
-      <c r="S312" s="4">
-        <v>0</v>
-      </c>
-      <c r="T312" s="4">
-        <v>0</v>
-      </c>
-      <c r="U312" s="4">
-        <v>0</v>
-      </c>
-      <c r="V312" s="4">
-        <v>0</v>
-      </c>
-      <c r="W312" s="4">
-        <v>1</v>
-      </c>
-      <c r="X312" s="4">
+      <c r="G312" s="2">
+        <v>0</v>
+      </c>
+      <c r="H312" s="2">
+        <v>0</v>
+      </c>
+      <c r="I312" s="2">
+        <v>0</v>
+      </c>
+      <c r="J312" s="2">
+        <v>1</v>
+      </c>
+      <c r="K312" s="2">
+        <v>0</v>
+      </c>
+      <c r="L312" s="2">
+        <v>1</v>
+      </c>
+      <c r="M312" s="2">
+        <v>0</v>
+      </c>
+      <c r="N312" s="2">
+        <v>0</v>
+      </c>
+      <c r="O312" s="2">
+        <v>1</v>
+      </c>
+      <c r="P312" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q312" s="2">
+        <v>0</v>
+      </c>
+      <c r="R312" s="2">
+        <v>1</v>
+      </c>
+      <c r="S312" s="2">
+        <v>0</v>
+      </c>
+      <c r="T312" s="2">
+        <v>0</v>
+      </c>
+      <c r="U312" s="2">
+        <v>0</v>
+      </c>
+      <c r="V312" s="2">
+        <v>0</v>
+      </c>
+      <c r="W312" s="2">
+        <v>1</v>
+      </c>
+      <c r="X312" s="2">
         <v>3</v>
       </c>
-      <c r="Y312" s="4">
+      <c r="Y312" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z312" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>289</v>
       </c>
@@ -24007,8 +24945,11 @@
       <c r="Y313" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z313" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>290</v>
       </c>
@@ -24075,8 +25016,11 @@
       <c r="Y314" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z314" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>291</v>
       </c>
@@ -24143,8 +25087,11 @@
       <c r="Y315" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z315" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A316" s="1" t="s">
         <v>292</v>
       </c>
@@ -24211,8 +25158,11 @@
       <c r="Y316" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>293</v>
       </c>
@@ -24278,6 +25228,9 @@
       </c>
       <c r="Y317" s="2">
         <v>0</v>
+      </c>
+      <c r="Z317" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
